--- a/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
+++ b/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -2248,7 +2248,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2381,6 +2381,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Serif"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -2687,7 +2693,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2695,19 +2701,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2747,23 +2753,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2771,7 +2777,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2779,19 +2785,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2807,7 +2813,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2815,7 +2821,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2823,11 +2829,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2843,11 +2849,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2855,7 +2861,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2863,23 +2869,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2887,15 +2893,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2915,15 +2921,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2935,7 +2941,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2943,11 +2949,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2983,7 +2989,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2991,11 +2997,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3003,19 +3009,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3042,9 +3048,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3057,9 +3060,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3072,17 +3072,11 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3095,9 +3089,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3110,9 +3101,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3125,9 +3113,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3140,9 +3125,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3155,9 +3137,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3170,9 +3149,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3185,9 +3161,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3200,9 +3173,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3215,9 +3185,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3230,9 +3197,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3245,17 +3209,11 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3268,9 +3226,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3283,9 +3238,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3298,9 +3250,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3313,9 +3262,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3328,9 +3274,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3343,9 +3286,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -3621,11 +3561,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52236430"/>
-        <c:axId val="40189536"/>
+        <c:axId val="91838761"/>
+        <c:axId val="42367824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52236430"/>
+        <c:axId val="91838761"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3702,12 +3642,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40189536"/>
+        <c:crossAx val="42367824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40189536"/>
+        <c:axId val="42367824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3784,7 +3724,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52236430"/>
+        <c:crossAx val="91838761"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4048,11 +3988,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6583012"/>
-        <c:axId val="16639219"/>
+        <c:axId val="76856242"/>
+        <c:axId val="78286264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6583012"/>
+        <c:axId val="76856242"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4130,12 +4070,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16639219"/>
+        <c:crossAx val="78286264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16639219"/>
+        <c:axId val="78286264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,7 +4151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6583012"/>
+        <c:crossAx val="76856242"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,15 +4208,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>883440</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>653760</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4289,8 +4229,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8400960" y="295920"/>
-          <a:ext cx="7695360" cy="3955680"/>
+          <a:off x="8541000" y="444960"/>
+          <a:ext cx="7499520" cy="3851280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4311,9 +4251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4327,7 +4267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101520" y="272880"/>
-          <a:ext cx="7604640" cy="3001320"/>
+          <a:ext cx="7610040" cy="3000600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4348,14 +4288,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>72000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>125640</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:colOff>124920</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4363,8 +4303,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5078520" y="11624400"/>
-        <a:ext cx="4636800" cy="2887560"/>
+        <a:off x="5082840" y="11624400"/>
+        <a:ext cx="4638960" cy="2886840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4378,14 +4318,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685080</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:colOff>684360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4399,7 +4339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="5622840"/>
-          <a:ext cx="1962360" cy="1523160"/>
+          <a:ext cx="1962720" cy="1522440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4415,14 +4355,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>117360</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>693360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:colOff>692640</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4436,7 +4376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="7233480"/>
-          <a:ext cx="1970640" cy="1504080"/>
+          <a:ext cx="1971000" cy="1503360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4452,14 +4392,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>332280</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>957240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>350280</xdr:rowOff>
+      <xdr:colOff>956520</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4473,8 +4413,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2423880" y="5699160"/>
-          <a:ext cx="3539880" cy="2979720"/>
+          <a:off x="2426040" y="5699160"/>
+          <a:ext cx="3541320" cy="2979000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4490,14 +4430,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380880</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>126720</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -4506,8 +4446,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1775520" y="6896520"/>
-          <a:ext cx="1140480" cy="867240"/>
+          <a:off x="1776600" y="6896520"/>
+          <a:ext cx="1141920" cy="867240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4527,14 +4467,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:colOff>291240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4547,8 +4487,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7504200" y="5803920"/>
-          <a:ext cx="3783600" cy="2578680"/>
+          <a:off x="7509240" y="5803920"/>
+          <a:ext cx="3785400" cy="2577960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4564,14 +4504,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>29160</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:colOff>534960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4580,10 +4520,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10327680" y="7194960"/>
-          <a:ext cx="1900800" cy="414720"/>
-          <a:chOff x="10327680" y="7194960"/>
-          <a:chExt cx="1900800" cy="414720"/>
+          <a:off x="10334520" y="7194960"/>
+          <a:ext cx="1901520" cy="414000"/>
+          <a:chOff x="10334520" y="7194960"/>
+          <a:chExt cx="1901520" cy="414000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4593,8 +4533,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10985040" y="7356960"/>
-            <a:ext cx="1243440" cy="252720"/>
+            <a:off x="10992240" y="7356960"/>
+            <a:ext cx="1243800" cy="252000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4604,9 +4544,7 @@
           </a:solidFill>
           <a:ln w="9525">
             <a:solidFill>
-              <a:srgbClr val="ffffff">
-                <a:shade val="50000"/>
-              </a:srgbClr>
+              <a:srgbClr val="bcbcbc"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4649,8 +4587,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="10327680" y="7194960"/>
-            <a:ext cx="657360" cy="288720"/>
+            <a:off x="10334520" y="7194960"/>
+            <a:ext cx="658440" cy="289440"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4671,14 +4609,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>156240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>1064520</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>257400</xdr:rowOff>
+      <xdr:colOff>1063800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4692,8 +4630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13643640" y="5803920"/>
-          <a:ext cx="5788800" cy="2782080"/>
+          <a:off x="13651920" y="5803920"/>
+          <a:ext cx="5792760" cy="2781360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4709,14 +4647,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>586080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>165960</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>166680</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4725,10 +4663,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14770800" y="6337800"/>
-          <a:ext cx="1671480" cy="533880"/>
-          <a:chOff x="14770800" y="6337800"/>
-          <a:chExt cx="1671480" cy="533880"/>
+          <a:off x="14779440" y="6337800"/>
+          <a:ext cx="1674360" cy="534600"/>
+          <a:chOff x="14779440" y="6337800"/>
+          <a:chExt cx="1674360" cy="534600"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4738,8 +4676,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14990400" y="6337800"/>
-            <a:ext cx="1053720" cy="277200"/>
+            <a:off x="14999400" y="6337800"/>
+            <a:ext cx="1054440" cy="276480"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4749,9 +4687,7 @@
           </a:solidFill>
           <a:ln w="9525">
             <a:solidFill>
-              <a:srgbClr val="ffffff">
-                <a:shade val="50000"/>
-              </a:srgbClr>
+              <a:srgbClr val="bcbcbc"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4794,8 +4730,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="14770800" y="6479640"/>
-            <a:ext cx="219960" cy="379440"/>
+            <a:off x="14779440" y="6479640"/>
+            <a:ext cx="220680" cy="380160"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4816,8 +4752,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="16044480" y="6476400"/>
-            <a:ext cx="398160" cy="395640"/>
+            <a:off x="16054560" y="6476400"/>
+            <a:ext cx="399600" cy="396360"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4838,14 +4774,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>97560</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>126360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:colOff>125640</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4859,8 +4795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20957400" y="5555520"/>
-          <a:ext cx="4212000" cy="3182400"/>
+          <a:off x="20970720" y="5555520"/>
+          <a:ext cx="4215240" cy="3181680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4876,14 +4812,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>234360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:colOff>515160</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4897,8 +4833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27769320" y="5573880"/>
-          <a:ext cx="3767760" cy="3183120"/>
+          <a:off x="27786960" y="5573880"/>
+          <a:ext cx="3770280" cy="3182400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4914,14 +4850,14 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>504000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>52920</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:colOff>52200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4935,8 +4871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34714080" y="5550480"/>
-          <a:ext cx="3732120" cy="3183120"/>
+          <a:off x="34736040" y="5550480"/>
+          <a:ext cx="3735720" cy="3182400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4952,14 +4888,14 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>146520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:colOff>344160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4968,8 +4904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33659280" y="5722920"/>
-          <a:ext cx="895680" cy="693000"/>
+          <a:off x="33680880" y="5722920"/>
+          <a:ext cx="895320" cy="692280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4979,9 +4915,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -5033,14 +4967,14 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>344880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>203400</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>186840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>693360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5049,8 +4983,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34554960" y="6069600"/>
-          <a:ext cx="1046160" cy="924840"/>
+          <a:off x="34576920" y="6069600"/>
+          <a:ext cx="1046880" cy="924840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5070,14 +5004,14 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>172080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>195840</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>370440</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:colOff>369720</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5086,8 +5020,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27009720" y="5645520"/>
-          <a:ext cx="895680" cy="693000"/>
+          <a:off x="27027000" y="5645520"/>
+          <a:ext cx="895320" cy="692280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5097,9 +5031,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -5141,14 +5073,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>370440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>361440</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5157,8 +5089,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27905400" y="5991840"/>
-          <a:ext cx="688680" cy="199800"/>
+          <a:off x="27923040" y="5991840"/>
+          <a:ext cx="689400" cy="199800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5183,14 +5115,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>53280</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>196920</xdr:rowOff>
+      <xdr:colOff>46080</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5204,7 +5136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="6881040"/>
-          <a:ext cx="6280200" cy="2666880"/>
+          <a:ext cx="6284520" cy="2666160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5220,14 +5152,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>548640</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>116640</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:colOff>115920</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5240,8 +5172,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5120640" y="4027320"/>
-          <a:ext cx="2676960" cy="2721600"/>
+          <a:off x="5124600" y="4027320"/>
+          <a:ext cx="2678760" cy="2720880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5267,9 +5199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:colOff>161640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5283,7 +5215,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="579240" y="1936800"/>
-          <a:ext cx="4463640" cy="3407040"/>
+          <a:ext cx="4467600" cy="3406320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5304,9 +5236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>372240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:colOff>371520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5319,8 +5251,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6366600" y="1600560"/>
-          <a:ext cx="5161320" cy="3765960"/>
+          <a:off x="6372360" y="1600560"/>
+          <a:ext cx="5164920" cy="3765240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5341,14 +5273,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>272160</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576720</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:colOff>576000</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5362,7 +5294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="272160" y="11476080"/>
-          <a:ext cx="7277040" cy="5159520"/>
+          <a:ext cx="7282440" cy="5158800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5379,13 +5311,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>337320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>326160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:colOff>325440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5398,8 +5330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9401400" y="1573920"/>
-          <a:ext cx="5566680" cy="4339800"/>
+          <a:off x="9409680" y="1573920"/>
+          <a:ext cx="5571000" cy="4339080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5415,14 +5347,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>239400</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>224640</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>196560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:colOff>93600</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5436,7 +5368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="239400" y="16702920"/>
-          <a:ext cx="8221680" cy="3790080"/>
+          <a:ext cx="8228520" cy="3789360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5453,13 +5385,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>83520</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:colOff>1440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5473,7 +5405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="83520" y="1926000"/>
-          <a:ext cx="7588080" cy="3457440"/>
+          <a:ext cx="7594560" cy="3456720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5489,14 +5421,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>52200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>693000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:colOff>692280</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5509,8 +5441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8418960" y="8461800"/>
-          <a:ext cx="7613280" cy="3318480"/>
+          <a:off x="8426520" y="8461800"/>
+          <a:ext cx="7618680" cy="3317760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5536,9 +5468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>645840</xdr:rowOff>
+      <xdr:colOff>18000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5547,7 +5479,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="23040" y="1756440"/>
-        <a:ext cx="4179240" cy="2441520"/>
+        <a:ext cx="4182120" cy="2440800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5567,13 +5499,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>794160</xdr:rowOff>
+      <xdr:colOff>227160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5586,8 +5518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="743040" y="1523880"/>
-          <a:ext cx="3668400" cy="2822400"/>
+          <a:off x="743760" y="1523880"/>
+          <a:ext cx="3670560" cy="2821680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5604,13 +5536,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>251280</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>248040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5619,8 +5551,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3040200" y="2292120"/>
-          <a:ext cx="1391760" cy="353520"/>
+          <a:off x="3042720" y="2292120"/>
+          <a:ext cx="1392840" cy="353520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5641,13 +5573,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>201600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5656,8 +5588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4385160" y="1750320"/>
-          <a:ext cx="1301760" cy="1101240"/>
+          <a:off x="4388760" y="1750320"/>
+          <a:ext cx="1302480" cy="1100520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5667,9 +5599,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr val="ffffff">
-              <a:shade val="50000"/>
-            </a:srgbClr>
+            <a:srgbClr val="bcbcbc"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -5893,10 +5823,10 @@
       <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="8.72"/>
   </cols>
   <sheetData>
@@ -6583,7 +6513,6 @@
       <c r="H42" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/DEnUfb55kwpXk+nLVerY+zQZEwHq3aMtD26pc5hc++4mKWe8EoyGxPOMlNICAq2CBHphDpiggyrIg2YK/CzVg==" saltValue="1eC+GX5UrrGVrp1oiwgM6w==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="26">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="J1:L1"/>
@@ -6629,13 +6558,13 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K75" activeCellId="0" sqref="K75"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="1" width="15.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.86"/>
@@ -9648,7 +9577,6 @@
       <c r="S104" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EtxnnnzQIFsME74aAl17lHffQ8Bg2lDxxGr+xq3pK64/V1zJt7dwFtvY+9hy2wXUMBCEnzKTs9UJZ/rvmLaT3A==" saltValue="nlSLKLTkv52WIGE7Zb0miw==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="199">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
@@ -9918,13 +9846,13 @@
   </sheetPr>
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L37" activeCellId="0" sqref="L37"/>
+      <selection pane="bottomLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.14"/>
@@ -10349,7 +10277,7 @@
       <c r="AD14" s="39"/>
       <c r="AE14" s="39"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -10380,7 +10308,7 @@
       <c r="AD15" s="39"/>
       <c r="AE15" s="39"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -10411,7 +10339,7 @@
       <c r="AD16" s="39"/>
       <c r="AE16" s="39"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -10442,7 +10370,7 @@
       <c r="AD17" s="39"/>
       <c r="AE17" s="39"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -10473,7 +10401,7 @@
       <c r="AD18" s="39"/>
       <c r="AE18" s="39"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -10504,7 +10432,7 @@
       <c r="AD19" s="39"/>
       <c r="AE19" s="39"/>
     </row>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -10535,7 +10463,7 @@
       <c r="AD20" s="39"/>
       <c r="AE20" s="39"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -11218,7 +11146,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
         <v>217</v>
       </c>
@@ -11541,7 +11469,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KnKrFL5MkH14H4PyndxcrIH7RazjyhkF821IZ6ctT5tScsPLiAGtC4c3zonRo/wxCCjC5p7i74UUJaiACMcwIg==" saltValue="J8596+ZNEeq3f/NzixaZZQ==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="79">
     <mergeCell ref="A2:K27"/>
     <mergeCell ref="M2:W27"/>
@@ -11642,15 +11569,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{657E3F4A-B81D-4281-A132-334F607433AB}">
+          <x14:cfRule type="expression" priority="2" id="{6BD05064-DD75-4241-949C-ACCB706A2814}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
               <border diagonalUp="false" diagonalDown="false">
                 <left/>
                 <right/>
@@ -11663,15 +11587,12 @@
           <xm:sqref>K30:K43 K48:K54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{E6601D1F-594E-40D7-B268-F08D80B95490}">
+          <x14:cfRule type="expression" priority="3" id="{251B8A80-1611-41DB-A992-C7B7A084BBA3}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
               <border diagonalUp="false" diagonalDown="false">
                 <left/>
                 <right/>
@@ -11702,7 +11623,7 @@
       <selection pane="bottomLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
@@ -12376,7 +12297,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>5</v>
       </c>
@@ -12451,7 +12372,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>6</v>
       </c>
@@ -12538,7 +12459,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>7</v>
       </c>
@@ -12597,7 +12518,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>8</v>
       </c>
@@ -12662,7 +12583,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="11"/>
     </row>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>9</v>
       </c>
@@ -13503,7 +13424,7 @@
       <c r="AZ39" s="38"/>
       <c r="BA39" s="38"/>
     </row>
-    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -14680,7 +14601,7 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
     </row>
-    <row r="64" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
         <v>333</v>
       </c>
@@ -14742,7 +14663,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22" t="s">
         <v>336</v>
       </c>
@@ -14765,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="22" t="s">
         <v>337</v>
       </c>
@@ -14788,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="22" t="s">
         <v>338</v>
       </c>
@@ -14803,12 +14724,12 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="51" t="s">
         <v>340</v>
@@ -14933,7 +14854,6 @@
       <c r="C90" s="29"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5G0AmqaoDrsIRuy5+I3R/L2IZTkzNtWi6TI3gjFgF23irMptfaaqq0HUvxAkprKqKmEVLraT5Rwbd9jNbOdcOw==" saltValue="eyHSNWMo9+kDPUMtBH3J0w==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="170">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
@@ -15249,7 +15169,7 @@
       <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.86"/>
@@ -15775,7 +15695,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
         <v>377</v>
       </c>
@@ -15802,7 +15722,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
         <v>388</v>
       </c>
@@ -15820,7 +15740,7 @@
       </c>
       <c r="H17" s="62"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="65" t="s">
         <v>389</v>
       </c>
@@ -15838,7 +15758,7 @@
       </c>
       <c r="H18" s="66"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
         <v>391</v>
       </c>
@@ -15852,7 +15772,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
         <v>383</v>
       </c>
@@ -16052,7 +15972,7 @@
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
     </row>
-    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="68"/>
       <c r="B40" s="68"/>
       <c r="C40" s="68"/>
@@ -16077,7 +15997,6 @@
     <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uie6Up9mZNuuOviMksw684vE7s2Tx9rN8euwciuXDm6BEptKmEKT2718jjHXkQWjacPi1WWG+8sEBdw4GXCp3A==" saltValue="caFEWMACSrtFVdwIMA4kog==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="56">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:K2"/>
@@ -16194,7 +16113,7 @@
       <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="8.72"/>
   </cols>
@@ -16490,7 +16409,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -16508,7 +16427,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -16526,7 +16445,7 @@
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -16544,7 +16463,7 @@
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -16562,7 +16481,7 @@
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
     </row>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -17043,7 +16962,7 @@
         <v>BLANK</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -17128,7 +17047,6 @@
       <c r="P44" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8UGjOur+APRSAGtBeGORuUB3xwSQHK/gTiN2NaaGNoJCBiNOH2celYgsgqnApKlO/FLGpHugjSW4GOdw/hBo+w==" saltValue="x2xWcABdJS46AOCyrtn/gw==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="52">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:N2"/>
@@ -17219,7 +17137,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
@@ -17227,12 +17145,12 @@
       <selection pane="bottomLeft" activeCell="X70" activeCellId="0" sqref="X70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="8.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -17241,7 +17159,7 @@
         <v>WARNING</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
@@ -17265,7 +17183,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="70" t="s">
         <v>424</v>
       </c>
@@ -17287,7 +17205,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>269</v>
       </c>
@@ -17544,7 +17462,7 @@
       <c r="V15" s="38"/>
       <c r="W15" s="38"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -17568,7 +17486,7 @@
       <c r="V16" s="38"/>
       <c r="W16" s="38"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -17592,7 +17510,7 @@
       <c r="V17" s="38"/>
       <c r="W17" s="38"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -17616,7 +17534,7 @@
       <c r="V18" s="38"/>
       <c r="W18" s="38"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -17640,7 +17558,7 @@
       <c r="V19" s="38"/>
       <c r="W19" s="38"/>
     </row>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -18168,7 +18086,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
         <v>445</v>
       </c>
@@ -18677,7 +18595,7 @@
       <c r="V54" s="38"/>
       <c r="W54" s="38"/>
     </row>
-    <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="s">
         <v>463</v>
       </c>
@@ -18711,7 +18629,7 @@
       <c r="V55" s="38"/>
       <c r="W55" s="38"/>
     </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="22" t="s">
@@ -18743,7 +18661,7 @@
       <c r="V56" s="38"/>
       <c r="W56" s="38"/>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="46" t="s">
         <v>468</v>
       </c>
@@ -18965,7 +18883,7 @@
       <c r="V63" s="38"/>
       <c r="W63" s="38"/>
     </row>
-    <row r="64" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="76"/>
       <c r="B64" s="76"/>
       <c r="C64" s="76"/>
@@ -19063,7 +18981,7 @@
       <c r="V68" s="38"/>
       <c r="W68" s="38"/>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M69" s="38"/>
       <c r="N69" s="38"/>
       <c r="O69" s="38"/>
@@ -19076,7 +18994,7 @@
       <c r="V69" s="38"/>
       <c r="W69" s="38"/>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
       <c r="O70" s="38"/>
@@ -19089,7 +19007,7 @@
       <c r="V70" s="38"/>
       <c r="W70" s="38"/>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M71" s="38"/>
       <c r="N71" s="38"/>
       <c r="O71" s="38"/>
@@ -19102,7 +19020,7 @@
       <c r="V71" s="38"/>
       <c r="W71" s="38"/>
     </row>
-    <row r="72" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M72" s="38"/>
       <c r="N72" s="38"/>
       <c r="O72" s="38"/>
@@ -19115,7 +19033,7 @@
       <c r="V72" s="38"/>
       <c r="W72" s="38"/>
     </row>
-    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M73" s="38"/>
       <c r="N73" s="38"/>
       <c r="O73" s="38"/>
@@ -19290,10 +19208,20 @@
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uZxEkseIZLvN/jjfBo9LYLbmQEjt+RVf+OR7BSB9yn4Zkoi82i7jJJKSn6xkZFv/YsH2JZVBaO9fx0+3hNFzLg==" saltValue="c/G76iUMjFLEHM4nPLuwwQ==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="93">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:F3"/>
@@ -19427,7 +19355,7 @@
       <selection pane="bottomLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.57"/>
@@ -19846,8 +19774,11 @@
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19857,7 +19788,6 @@
       <c r="A28" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SFIIq+U30TtKj2sHy/FKJjnBzCoQLzjV1mMwtMATDsej8y5ACEmaOxv4GFSmAOG6dozeC5NoalaD4ESnz0bTvg==" saltValue="ZCaZhKBTuCR0NTkj/h6/xQ==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="48">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:F3"/>
@@ -19937,12 +19867,12 @@
       <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="8.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
@@ -19951,7 +19881,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>220</v>
       </c>
@@ -19975,7 +19905,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
         <v>30</v>
       </c>
@@ -20003,7 +19933,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>32</v>
       </c>
@@ -20156,7 +20086,7 @@
       <c r="G15" s="84"/>
       <c r="H15" s="84"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -20166,7 +20096,7 @@
       <c r="G16" s="84"/>
       <c r="H16" s="84"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -20176,7 +20106,7 @@
       <c r="G17" s="84"/>
       <c r="H17" s="84"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -20186,7 +20116,7 @@
       <c r="G18" s="84"/>
       <c r="H18" s="84"/>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="84"/>
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
@@ -20196,7 +20126,7 @@
       <c r="G19" s="84"/>
       <c r="H19" s="84"/>
     </row>
-    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="84"/>
       <c r="B20" s="84"/>
       <c r="C20" s="84"/>
@@ -20357,7 +20287,6 @@
       <c r="G34" s="74"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EFUYjzGyJAN41JDq0Vx4FhQgnnpCR/UREV+o2MTohhkIa9XZbW1nOBqgLqW/i0bVb2JPNzBSWas6c1lQJaYmAw==" saltValue="Wj3kCR1k+cUSscRm0QRxNA==" spinCount="100000" sheet="true" scenarios="true" insertHyperlinks="false"/>
   <mergeCells count="23">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="G2:K2"/>

--- a/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
+++ b/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -2248,7 +2248,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2388,6 +2388,11 @@
       <color rgb="FF000000"/>
       <name val="DejaVu Serif"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DejaVu Serif"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3561,11 +3566,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91838761"/>
-        <c:axId val="42367824"/>
+        <c:axId val="6745922"/>
+        <c:axId val="89815548"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91838761"/>
+        <c:axId val="6745922"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3642,12 +3647,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42367824"/>
+        <c:crossAx val="89815548"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42367824"/>
+        <c:axId val="89815548"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3724,7 +3729,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91838761"/>
+        <c:crossAx val="6745922"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3988,11 +3993,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="76856242"/>
-        <c:axId val="78286264"/>
+        <c:axId val="91822662"/>
+        <c:axId val="43233426"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76856242"/>
+        <c:axId val="91822662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4070,12 +4075,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78286264"/>
+        <c:crossAx val="43233426"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78286264"/>
+        <c:axId val="43233426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4151,7 +4156,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76856242"/>
+        <c:crossAx val="91822662"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4208,15 +4213,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>132840</xdr:colOff>
+      <xdr:colOff>82800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>653760</xdr:colOff>
+      <xdr:colOff>603360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4229,8 +4234,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8541000" y="444960"/>
-          <a:ext cx="7499520" cy="3851280"/>
+          <a:off x="8490960" y="403560"/>
+          <a:ext cx="7499160" cy="3850920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4251,9 +4256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4267,7 +4272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101520" y="272880"/>
-          <a:ext cx="7610040" cy="3000600"/>
+          <a:ext cx="7609680" cy="3000240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4293,9 +4298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4304,7 +4309,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5082840" y="11624400"/>
-        <a:ext cx="4638960" cy="2886840"/>
+        <a:ext cx="4638600" cy="2886480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4323,9 +4328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>684360</xdr:colOff>
+      <xdr:colOff>684000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4339,7 +4344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="5622840"/>
-          <a:ext cx="1962720" cy="1522440"/>
+          <a:ext cx="1962360" cy="1522080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4360,9 +4365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>692640</xdr:colOff>
+      <xdr:colOff>692280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4376,7 +4381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="7233480"/>
-          <a:ext cx="1971000" cy="1503360"/>
+          <a:ext cx="1970640" cy="1503000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4397,9 +4402,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>956520</xdr:colOff>
+      <xdr:colOff>956160</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4414,7 +4419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2426040" y="5699160"/>
-          <a:ext cx="3541320" cy="2979000"/>
+          <a:ext cx="3540960" cy="2978640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4472,9 +4477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>291240</xdr:colOff>
+      <xdr:colOff>290880</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>208080</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4488,7 +4493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7509240" y="5803920"/>
-          <a:ext cx="3785400" cy="2577960"/>
+          <a:ext cx="3785040" cy="2577600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4509,9 +4514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4521,9 +4526,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="10334520" y="7194960"/>
-          <a:ext cx="1901520" cy="414000"/>
+          <a:ext cx="1901160" cy="413640"/>
           <a:chOff x="10334520" y="7194960"/>
-          <a:chExt cx="1901520" cy="414000"/>
+          <a:chExt cx="1901160" cy="413640"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4534,7 +4539,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10992240" y="7356960"/>
-            <a:ext cx="1243800" cy="252000"/>
+            <a:ext cx="1243440" cy="251640"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4588,7 +4593,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
             <a:off x="10334520" y="7194960"/>
-            <a:ext cx="658440" cy="289440"/>
+            <a:ext cx="658800" cy="289800"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4614,9 +4619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>1063800</xdr:colOff>
+      <xdr:colOff>1063440</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>203400</xdr:rowOff>
+      <xdr:rowOff>203040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4631,7 +4636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13651920" y="5803920"/>
-          <a:ext cx="5792760" cy="2781360"/>
+          <a:ext cx="5792400" cy="2781000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4652,9 +4657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>167040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4664,9 +4669,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14779440" y="6337800"/>
-          <a:ext cx="1674360" cy="534600"/>
+          <a:ext cx="1674720" cy="534960"/>
           <a:chOff x="14779440" y="6337800"/>
-          <a:chExt cx="1674360" cy="534600"/>
+          <a:chExt cx="1674720" cy="534960"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4677,7 +4682,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="14999400" y="6337800"/>
-            <a:ext cx="1054440" cy="276480"/>
+            <a:ext cx="1054080" cy="276120"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4731,7 +4736,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1">
             <a:off x="14779440" y="6479640"/>
-            <a:ext cx="220680" cy="380160"/>
+            <a:ext cx="221040" cy="380520"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4753,7 +4758,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="16054560" y="6476400"/>
-            <a:ext cx="399600" cy="396360"/>
+            <a:ext cx="399960" cy="396720"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4779,9 +4784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>125640</xdr:colOff>
+      <xdr:colOff>125280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4796,7 +4801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20970720" y="5555520"/>
-          <a:ext cx="4215240" cy="3181680"/>
+          <a:ext cx="4214880" cy="3181320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4817,9 +4822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>515160</xdr:colOff>
+      <xdr:colOff>514800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4834,7 +4839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27786960" y="5573880"/>
-          <a:ext cx="3770280" cy="3182400"/>
+          <a:ext cx="3769920" cy="3182040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4855,9 +4860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4872,7 +4877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34736040" y="5550480"/>
-          <a:ext cx="3735720" cy="3182400"/>
+          <a:ext cx="3735360" cy="3182040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4893,9 +4898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>344160</xdr:colOff>
+      <xdr:colOff>343800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4905,7 +4910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33680880" y="5722920"/>
-          <a:ext cx="895320" cy="692280"/>
+          <a:ext cx="894960" cy="691920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5009,9 +5014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>369720</xdr:colOff>
+      <xdr:colOff>369360</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5021,7 +5026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27027000" y="5645520"/>
-          <a:ext cx="895320" cy="692280"/>
+          <a:ext cx="894960" cy="691920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5120,9 +5125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5136,7 +5141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="6881040"/>
-          <a:ext cx="6284520" cy="2666160"/>
+          <a:ext cx="6284160" cy="2665800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5157,9 +5162,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5173,7 +5178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5124600" y="4027320"/>
-          <a:ext cx="2678760" cy="2720880"/>
+          <a:ext cx="2678400" cy="2720520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5199,9 +5204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
+      <xdr:colOff>161280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5215,7 +5220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="579240" y="1936800"/>
-          <a:ext cx="4467600" cy="3406320"/>
+          <a:ext cx="4467240" cy="3405960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5236,9 +5241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>371520</xdr:colOff>
+      <xdr:colOff>371160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5252,7 +5257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6372360" y="1600560"/>
-          <a:ext cx="5164920" cy="3765240"/>
+          <a:ext cx="5164560" cy="3764880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5278,9 +5283,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576000</xdr:colOff>
+      <xdr:colOff>575640</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5293,8 +5298,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="272160" y="11476080"/>
-          <a:ext cx="7282440" cy="5158800"/>
+          <a:off x="272160" y="11442960"/>
+          <a:ext cx="7282080" cy="5158440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5315,9 +5320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5331,7 +5336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9409680" y="1573920"/>
-          <a:ext cx="5571000" cy="4339080"/>
+          <a:ext cx="5570640" cy="4338720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5352,9 +5357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>93240</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5367,8 +5372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="239400" y="16702920"/>
-          <a:ext cx="8228520" cy="3789360"/>
+          <a:off x="239400" y="16669800"/>
+          <a:ext cx="8228160" cy="3789000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5389,9 +5394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5405,7 +5410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="83520" y="1926000"/>
-          <a:ext cx="7594560" cy="3456720"/>
+          <a:ext cx="7594200" cy="3456360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5420,38 +5425,56 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:colOff>14040</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>692280</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:colOff>625320</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 10" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Image 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8426520" y="8461800"/>
-          <a:ext cx="7618680" cy="3317760"/>
+          <a:off x="8388360" y="9458280"/>
+          <a:ext cx="7589880" cy="4493880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId5"/>
+          <a:srcRect l="6143" t="8223" r="6610" b="18463"/>
+          <a:stretch/>
+        </a:blipFill>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="DejaVu Serif"/>
+            </a:rPr>
+            <a:t>\</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="DejaVu Serif"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5468,9 +5491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5479,7 +5502,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="23040" y="1756440"/>
-        <a:ext cx="4182120" cy="2440800"/>
+        <a:ext cx="4181760" cy="2440440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5503,9 +5526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5519,7 +5542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743760" y="1523880"/>
-          <a:ext cx="3670560" cy="2821680"/>
+          <a:ext cx="3670200" cy="2821320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5577,9 +5600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5589,7 +5612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4388760" y="1750320"/>
-          <a:ext cx="1302480" cy="1100520"/>
+          <a:ext cx="1302120" cy="1100160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5819,7 +5842,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -6558,7 +6581,7 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
@@ -9846,10 +9869,10 @@
   </sheetPr>
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="O36" activeCellId="0" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11569,7 +11592,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{6BD05064-DD75-4241-949C-ACCB706A2814}">
+          <x14:cfRule type="expression" priority="2" id="{83CFC08B-729D-4883-BFC3-13D7D7C69230}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11587,7 +11610,7 @@
           <xm:sqref>K30:K43 K48:K54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{251B8A80-1611-41DB-A992-C7B7A084BBA3}">
+          <x14:cfRule type="expression" priority="3" id="{B289C537-C6B2-40FC-8D48-E9771B40ADBF}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11617,7 +11640,7 @@
   </sheetPr>
   <dimension ref="A1:BA90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
@@ -15165,7 +15188,7 @@
   </sheetPr>
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -16107,7 +16130,7 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
@@ -17137,12 +17160,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="X70" activeCellId="0" sqref="X70"/>
+      <selection pane="bottomLeft" activeCell="Z41" activeCellId="0" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18363,7 +18386,7 @@
       <c r="V47" s="38"/>
       <c r="W47" s="38"/>
     </row>
-    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="46" t="s">
         <v>457</v>
       </c>
@@ -18396,6 +18419,7 @@
       <c r="U48" s="38"/>
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
+      <c r="Y48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="46" t="s">
@@ -19349,7 +19373,7 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
@@ -19863,7 +19887,7 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
+++ b/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
@@ -3566,11 +3566,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6745922"/>
-        <c:axId val="89815548"/>
+        <c:axId val="92413356"/>
+        <c:axId val="66553819"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6745922"/>
+        <c:axId val="92413356"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3647,12 +3647,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89815548"/>
+        <c:crossAx val="66553819"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89815548"/>
+        <c:axId val="66553819"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3729,7 +3729,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6745922"/>
+        <c:crossAx val="92413356"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3993,11 +3993,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91822662"/>
-        <c:axId val="43233426"/>
+        <c:axId val="58508355"/>
+        <c:axId val="57905767"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91822662"/>
+        <c:axId val="58508355"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4075,12 +4075,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43233426"/>
+        <c:crossAx val="57905767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43233426"/>
+        <c:axId val="57905767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4156,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91822662"/>
+        <c:crossAx val="58508355"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11592,7 +11592,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{83CFC08B-729D-4883-BFC3-13D7D7C69230}">
+          <x14:cfRule type="expression" priority="2" id="{31C6D38E-CD8D-4C9F-8150-D8FDE2B1D77B}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11610,7 +11610,7 @@
           <xm:sqref>K30:K43 K48:K54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{B289C537-C6B2-40FC-8D48-E9771B40ADBF}">
+          <x14:cfRule type="expression" priority="3" id="{C2EF9029-D6CB-441B-A9DC-B3E9E8B96032}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>

--- a/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
+++ b/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -2248,7 +2248,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2388,11 +2388,6 @@
       <color rgb="FF000000"/>
       <name val="DejaVu Serif"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="DejaVu Serif"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2693,7 +2688,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2993,6 +2988,10 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -3566,11 +3565,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92413356"/>
-        <c:axId val="66553819"/>
+        <c:axId val="26996268"/>
+        <c:axId val="51668035"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92413356"/>
+        <c:axId val="26996268"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3647,12 +3646,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66553819"/>
+        <c:crossAx val="51668035"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66553819"/>
+        <c:axId val="51668035"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3729,7 +3728,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92413356"/>
+        <c:crossAx val="26996268"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3993,11 +3992,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58508355"/>
-        <c:axId val="57905767"/>
+        <c:axId val="12540623"/>
+        <c:axId val="96768915"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58508355"/>
+        <c:axId val="12540623"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4075,12 +4074,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57905767"/>
+        <c:crossAx val="96768915"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57905767"/>
+        <c:axId val="96768915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4155,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58508355"/>
+        <c:crossAx val="12540623"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4219,9 +4218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
+      <xdr:colOff>603000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4235,7 +4234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8490960" y="403560"/>
-          <a:ext cx="7499160" cy="3850920"/>
+          <a:ext cx="7498800" cy="3850560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4256,9 +4255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4272,7 +4271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101520" y="272880"/>
-          <a:ext cx="7609680" cy="3000240"/>
+          <a:ext cx="7609320" cy="2999880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4298,9 +4297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>124200</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4309,7 +4308,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5082840" y="11624400"/>
-        <a:ext cx="4638600" cy="2886480"/>
+        <a:ext cx="4638240" cy="2886120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4328,9 +4327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>684000</xdr:colOff>
+      <xdr:colOff>683640</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4344,7 +4343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="5622840"/>
-          <a:ext cx="1962360" cy="1522080"/>
+          <a:ext cx="1962000" cy="1521720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4365,9 +4364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>692280</xdr:colOff>
+      <xdr:colOff>691920</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4381,7 +4380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="7233480"/>
-          <a:ext cx="1970640" cy="1503000"/>
+          <a:ext cx="1970280" cy="1502640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4402,9 +4401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>956160</xdr:colOff>
+      <xdr:colOff>955800</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4419,7 +4418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2426040" y="5699160"/>
-          <a:ext cx="3540960" cy="2978640"/>
+          <a:ext cx="3540600" cy="2978280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4477,9 +4476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>290880</xdr:colOff>
+      <xdr:colOff>290520</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4493,7 +4492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7509240" y="5803920"/>
-          <a:ext cx="3785040" cy="2577600"/>
+          <a:ext cx="3784680" cy="2577240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4514,9 +4513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>534600</xdr:colOff>
+      <xdr:colOff>534240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4526,9 +4525,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="10334520" y="7194960"/>
-          <a:ext cx="1901160" cy="413640"/>
+          <a:ext cx="1900800" cy="413280"/>
           <a:chOff x="10334520" y="7194960"/>
-          <a:chExt cx="1901160" cy="413640"/>
+          <a:chExt cx="1900800" cy="413280"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4539,7 +4538,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10992240" y="7356960"/>
-            <a:ext cx="1243440" cy="251640"/>
+            <a:ext cx="1243080" cy="251280"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4593,7 +4592,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
             <a:off x="10334520" y="7194960"/>
-            <a:ext cx="658800" cy="289800"/>
+            <a:ext cx="659160" cy="290160"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4619,9 +4618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>1063440</xdr:colOff>
+      <xdr:colOff>1063080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4636,7 +4635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13651920" y="5803920"/>
-          <a:ext cx="5792400" cy="2781000"/>
+          <a:ext cx="5792040" cy="2780640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4657,9 +4656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>167040</xdr:colOff>
+      <xdr:colOff>167400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4669,9 +4668,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14779440" y="6337800"/>
-          <a:ext cx="1674720" cy="534960"/>
+          <a:ext cx="1675080" cy="535320"/>
           <a:chOff x="14779440" y="6337800"/>
-          <a:chExt cx="1674720" cy="534960"/>
+          <a:chExt cx="1675080" cy="535320"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4682,7 +4681,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="14999400" y="6337800"/>
-            <a:ext cx="1054080" cy="276120"/>
+            <a:ext cx="1053720" cy="275760"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4736,7 +4735,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1">
             <a:off x="14779440" y="6479640"/>
-            <a:ext cx="221040" cy="380520"/>
+            <a:ext cx="221400" cy="380880"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4758,7 +4757,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="16054560" y="6476400"/>
-            <a:ext cx="399960" cy="396720"/>
+            <a:ext cx="400320" cy="397080"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4784,9 +4783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>125280</xdr:colOff>
+      <xdr:colOff>124920</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4801,7 +4800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20970720" y="5555520"/>
-          <a:ext cx="4214880" cy="3181320"/>
+          <a:ext cx="4214520" cy="3180960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4822,9 +4821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>514800</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4839,7 +4838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27786960" y="5573880"/>
-          <a:ext cx="3769920" cy="3182040"/>
+          <a:ext cx="3769560" cy="3181680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4860,9 +4859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4877,7 +4876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34736040" y="5550480"/>
-          <a:ext cx="3735360" cy="3182040"/>
+          <a:ext cx="3735000" cy="3181680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4898,9 +4897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>343800</xdr:colOff>
+      <xdr:colOff>343440</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4910,7 +4909,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33680880" y="5722920"/>
-          <a:ext cx="894960" cy="691920"/>
+          <a:ext cx="894600" cy="691560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5014,9 +5013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>369360</xdr:colOff>
+      <xdr:colOff>369000</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5026,7 +5025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27027000" y="5645520"/>
-          <a:ext cx="894960" cy="691920"/>
+          <a:ext cx="894600" cy="691560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5125,9 +5124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>45360</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5141,7 +5140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="6881040"/>
-          <a:ext cx="6284160" cy="2665800"/>
+          <a:ext cx="6283800" cy="2665440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5162,9 +5161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5178,7 +5177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5124600" y="4027320"/>
-          <a:ext cx="2678400" cy="2720520"/>
+          <a:ext cx="2678040" cy="2720160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5204,9 +5203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5220,7 +5219,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="579240" y="1936800"/>
-          <a:ext cx="4467240" cy="3405960"/>
+          <a:ext cx="4466880" cy="3405600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5241,9 +5240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>371160</xdr:colOff>
+      <xdr:colOff>370800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>205560</xdr:rowOff>
+      <xdr:rowOff>205200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5257,7 +5256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6372360" y="1600560"/>
-          <a:ext cx="5164560" cy="3764880"/>
+          <a:ext cx="5164200" cy="3764520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5279,13 +5278,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>272160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>575640</xdr:colOff>
+      <xdr:colOff>575280</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5299,7 +5298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="272160" y="11442960"/>
-          <a:ext cx="7282080" cy="5158440"/>
+          <a:ext cx="7281720" cy="5158080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5320,9 +5319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324720</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5336,7 +5335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9409680" y="1573920"/>
-          <a:ext cx="5570640" cy="4338720"/>
+          <a:ext cx="5570280" cy="4338360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5353,13 +5352,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>239400</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>196560</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5373,7 +5372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="239400" y="16669800"/>
-          <a:ext cx="8228160" cy="3789000"/>
+          <a:ext cx="8227800" cy="3788640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5394,9 +5393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5410,7 +5409,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="83520" y="1926000"/>
-          <a:ext cx="7594200" cy="3456360"/>
+          <a:ext cx="7593840" cy="3456000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5425,56 +5424,38 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:colOff>316440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:colOff>330480</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Image 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8388360" y="9458280"/>
-          <a:ext cx="7589880" cy="4493880"/>
+          <a:off x="8690760" y="9143640"/>
+          <a:ext cx="6992640" cy="4928400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:blipFill rotWithShape="0">
-          <a:blip r:embed="rId5"/>
-          <a:srcRect l="6143" t="8223" r="6610" b="18463"/>
-          <a:stretch/>
-        </a:blipFill>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr" anchorCtr="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="DejaVu Serif"/>
-            </a:rPr>
-            <a:t>\</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="DejaVu Serif"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5491,9 +5472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5502,7 +5483,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="23040" y="1756440"/>
-        <a:ext cx="4181760" cy="2440440"/>
+        <a:ext cx="4181400" cy="2440080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5526,9 +5507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5542,7 +5523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743760" y="1523880"/>
-          <a:ext cx="3670200" cy="2821320"/>
+          <a:ext cx="3669840" cy="2820960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5600,9 +5581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>107640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5612,7 +5593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4388760" y="1750320"/>
-          <a:ext cx="1302120" cy="1100160"/>
+          <a:ext cx="1301760" cy="1099800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6581,7 +6562,7 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
@@ -9870,7 +9851,7 @@
   <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="O36" activeCellId="0" sqref="O36"/>
     </sheetView>
@@ -11592,7 +11573,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{31C6D38E-CD8D-4C9F-8150-D8FDE2B1D77B}">
+          <x14:cfRule type="expression" priority="2" id="{B3979073-D2F8-46E0-90BA-305C4C49D3E4}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11610,7 +11591,7 @@
           <xm:sqref>K30:K43 K48:K54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{C2EF9029-D6CB-441B-A9DC-B3E9E8B96032}">
+          <x14:cfRule type="expression" priority="3" id="{A95E43B1-2D14-484B-B483-ECB2719F4DBB}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -17162,10 +17143,10 @@
   </sheetPr>
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Z41" activeCellId="0" sqref="Z41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="AB64" activeCellId="0" sqref="AB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18386,7 +18367,7 @@
       <c r="V47" s="38"/>
       <c r="W47" s="38"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="46" t="s">
         <v>457</v>
       </c>
@@ -18419,7 +18400,7 @@
       <c r="U48" s="38"/>
       <c r="V48" s="38"/>
       <c r="W48" s="38"/>
-      <c r="Y48" s="0"/>
+      <c r="Y48" s="75"/>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="46" t="s">
@@ -18733,7 +18714,7 @@
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
-      <c r="J58" s="75" t="b">
+      <c r="J58" s="76" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18880,17 +18861,17 @@
       <c r="W62" s="38"/>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="76" t="s">
+      <c r="A63" s="77" t="s">
         <v>476</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
       <c r="J63" s="31" t="s">
         <v>477</v>
       </c>
@@ -18908,15 +18889,15 @@
       <c r="W63" s="38"/>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="76"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
       <c r="J64" s="31"/>
       <c r="K64" s="31"/>
       <c r="M64" s="38"/>
@@ -18932,15 +18913,15 @@
       <c r="W64" s="38"/>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="76"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
+      <c r="A65" s="77"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
       <c r="J65" s="31"/>
       <c r="K65" s="31"/>
       <c r="M65" s="38"/>
@@ -18956,15 +18937,15 @@
       <c r="W65" s="38"/>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="76"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
       <c r="J66" s="31"/>
       <c r="K66" s="31"/>
       <c r="M66" s="38"/>
@@ -19169,58 +19150,58 @@
       <c r="W78" s="58"/>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M79" s="76" t="s">
+      <c r="M79" s="77" t="s">
         <v>482</v>
       </c>
-      <c r="N79" s="76"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="76"/>
-      <c r="R79" s="76"/>
-      <c r="S79" s="76"/>
-      <c r="T79" s="76"/>
-      <c r="U79" s="76"/>
+      <c r="N79" s="77"/>
+      <c r="O79" s="77"/>
+      <c r="P79" s="77"/>
+      <c r="Q79" s="77"/>
+      <c r="R79" s="77"/>
+      <c r="S79" s="77"/>
+      <c r="T79" s="77"/>
+      <c r="U79" s="77"/>
       <c r="V79" s="31" t="s">
         <v>483</v>
       </c>
       <c r="W79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M80" s="76"/>
-      <c r="N80" s="76"/>
-      <c r="O80" s="76"/>
-      <c r="P80" s="76"/>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="76"/>
-      <c r="T80" s="76"/>
-      <c r="U80" s="76"/>
+      <c r="M80" s="77"/>
+      <c r="N80" s="77"/>
+      <c r="O80" s="77"/>
+      <c r="P80" s="77"/>
+      <c r="Q80" s="77"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
       <c r="V80" s="31"/>
       <c r="W80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76"/>
+      <c r="M81" s="77"/>
+      <c r="N81" s="77"/>
+      <c r="O81" s="77"/>
+      <c r="P81" s="77"/>
+      <c r="Q81" s="77"/>
+      <c r="R81" s="77"/>
+      <c r="S81" s="77"/>
+      <c r="T81" s="77"/>
+      <c r="U81" s="77"/>
       <c r="V81" s="31"/>
       <c r="W81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="76"/>
-      <c r="S82" s="76"/>
-      <c r="T82" s="76"/>
-      <c r="U82" s="76"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="77"/>
+      <c r="P82" s="77"/>
+      <c r="Q82" s="77"/>
+      <c r="R82" s="77"/>
+      <c r="S82" s="77"/>
+      <c r="T82" s="77"/>
+      <c r="U82" s="77"/>
       <c r="V82" s="31"/>
       <c r="W82" s="31"/>
     </row>
@@ -19469,10 +19450,10 @@
         <v>491</v>
       </c>
       <c r="K4" s="25"/>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="78" t="s">
         <v>492</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="78" t="s">
         <v>493</v>
       </c>
       <c r="N4" s="25" t="s">
@@ -19490,16 +19471,16 @@
       <c r="R4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="n">
+      <c r="A5" s="80" t="n">
         <v>0</v>
       </c>
       <c r="B5" s="34" t="n">
@@ -19518,21 +19499,21 @@
       <c r="I5" s="33"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79" t="n">
+      <c r="A6" s="80" t="n">
         <v>0.2</v>
       </c>
       <c r="B6" s="34" t="n">
@@ -19585,7 +19566,7 @@
       <c r="X6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="n">
+      <c r="A7" s="80" t="n">
         <v>0.4</v>
       </c>
       <c r="B7" s="34" t="n">
@@ -19638,7 +19619,7 @@
       <c r="X7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="n">
+      <c r="A8" s="80" t="n">
         <v>0.6</v>
       </c>
       <c r="B8" s="34" t="n">
@@ -19691,7 +19672,7 @@
       <c r="X8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="n">
+      <c r="A9" s="80" t="n">
         <v>0.8</v>
       </c>
       <c r="B9" s="34" t="n">
@@ -19728,7 +19709,7 @@
       <c r="X9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="n">
+      <c r="A10" s="80" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="34" t="n">
@@ -19809,7 +19790,7 @@
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="80"/>
+      <c r="A28" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -20014,221 +19995,221 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>512</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="34" t="n">
         <v>10000</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="83" t="str">
+      <c r="F6" s="84" t="str">
         <f aca="false">IF(ISBLANK(D6),IncompleteText,IF(D6&lt;MaxTSVoltage,ErrorText,OKText))</f>
         <v>OK</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="85" t="s">
         <v>513</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="84"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">

--- a/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
+++ b/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -3565,11 +3565,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="26996268"/>
-        <c:axId val="51668035"/>
+        <c:axId val="87298118"/>
+        <c:axId val="49172898"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26996268"/>
+        <c:axId val="87298118"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3646,12 +3646,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51668035"/>
+        <c:crossAx val="49172898"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51668035"/>
+        <c:axId val="49172898"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3728,7 +3728,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26996268"/>
+        <c:crossAx val="87298118"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3992,11 +3992,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12540623"/>
-        <c:axId val="96768915"/>
+        <c:axId val="9720472"/>
+        <c:axId val="39613714"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12540623"/>
+        <c:axId val="9720472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4074,12 +4074,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96768915"/>
+        <c:crossAx val="39613714"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96768915"/>
+        <c:axId val="39613714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,7 +4155,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12540623"/>
+        <c:crossAx val="9720472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4218,9 +4218,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4234,7 +4234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8490960" y="403560"/>
-          <a:ext cx="7498800" cy="3850560"/>
+          <a:ext cx="7498440" cy="3850200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4254,10 +4254,10 @@
       <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>698040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4271,7 +4271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101520" y="272880"/>
-          <a:ext cx="7609320" cy="2999880"/>
+          <a:ext cx="7608960" cy="2999520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4297,9 +4297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>124200</xdr:colOff>
+      <xdr:colOff>123840</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4308,7 +4308,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5082840" y="11624400"/>
-        <a:ext cx="4638240" cy="2886120"/>
+        <a:ext cx="4637880" cy="2885760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4327,9 +4327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>683640</xdr:colOff>
+      <xdr:colOff>683280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4343,7 +4343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="5622840"/>
-          <a:ext cx="1962000" cy="1521720"/>
+          <a:ext cx="1961640" cy="1521360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4364,9 +4364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>691920</xdr:colOff>
+      <xdr:colOff>691560</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4380,7 +4380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="7233480"/>
-          <a:ext cx="1970280" cy="1502640"/>
+          <a:ext cx="1969920" cy="1502280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4401,9 +4401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>955800</xdr:colOff>
+      <xdr:colOff>955440</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4418,7 +4418,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2426040" y="5699160"/>
-          <a:ext cx="3540600" cy="2978280"/>
+          <a:ext cx="3540240" cy="2977920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4476,9 +4476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>290520</xdr:colOff>
+      <xdr:colOff>290160</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4492,7 +4492,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7509240" y="5803920"/>
-          <a:ext cx="3784680" cy="2577240"/>
+          <a:ext cx="3784320" cy="2576880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4513,9 +4513,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4525,9 +4525,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="10334520" y="7194960"/>
-          <a:ext cx="1900800" cy="413280"/>
+          <a:ext cx="1900440" cy="412920"/>
           <a:chOff x="10334520" y="7194960"/>
-          <a:chExt cx="1900800" cy="413280"/>
+          <a:chExt cx="1900440" cy="412920"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4538,7 +4538,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10992240" y="7356960"/>
-            <a:ext cx="1243080" cy="251280"/>
+            <a:ext cx="1242720" cy="250920"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4592,7 +4592,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
             <a:off x="10334520" y="7194960"/>
-            <a:ext cx="659160" cy="290160"/>
+            <a:ext cx="659520" cy="290520"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4618,9 +4618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>1063080</xdr:colOff>
+      <xdr:colOff>1062720</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>202680</xdr:rowOff>
+      <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4635,7 +4635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13651920" y="5803920"/>
-          <a:ext cx="5792040" cy="2780640"/>
+          <a:ext cx="5791680" cy="2780280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4656,9 +4656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4668,9 +4668,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14779440" y="6337800"/>
-          <a:ext cx="1675080" cy="535320"/>
+          <a:ext cx="1675440" cy="535680"/>
           <a:chOff x="14779440" y="6337800"/>
-          <a:chExt cx="1675080" cy="535320"/>
+          <a:chExt cx="1675440" cy="535680"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4681,7 +4681,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="14999400" y="6337800"/>
-            <a:ext cx="1053720" cy="275760"/>
+            <a:ext cx="1053360" cy="275400"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4735,7 +4735,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1">
             <a:off x="14779440" y="6479640"/>
-            <a:ext cx="221400" cy="380880"/>
+            <a:ext cx="221760" cy="381240"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4757,7 +4757,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="16054560" y="6476400"/>
-            <a:ext cx="400320" cy="397080"/>
+            <a:ext cx="400680" cy="397440"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4783,9 +4783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4800,7 +4800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20970720" y="5555520"/>
-          <a:ext cx="4214520" cy="3180960"/>
+          <a:ext cx="4214160" cy="3180600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4821,9 +4821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>514440</xdr:colOff>
+      <xdr:colOff>514080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4838,7 +4838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27786960" y="5573880"/>
-          <a:ext cx="3769560" cy="3181680"/>
+          <a:ext cx="3769200" cy="3181320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4859,9 +4859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4876,7 +4876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34736040" y="5550480"/>
-          <a:ext cx="3735000" cy="3181680"/>
+          <a:ext cx="3734640" cy="3181320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4897,9 +4897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>343440</xdr:colOff>
+      <xdr:colOff>343080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4909,7 +4909,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33680880" y="5722920"/>
-          <a:ext cx="894600" cy="691560"/>
+          <a:ext cx="894240" cy="691200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5013,9 +5013,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>369000</xdr:colOff>
+      <xdr:colOff>368640</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5025,7 +5025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27027000" y="5645520"/>
-          <a:ext cx="894600" cy="691560"/>
+          <a:ext cx="894240" cy="691200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5124,9 +5124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>45360</xdr:colOff>
+      <xdr:colOff>45000</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5140,7 +5140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="6881040"/>
-          <a:ext cx="6283800" cy="2665440"/>
+          <a:ext cx="6283440" cy="2665080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5161,9 +5161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5177,7 +5177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5124600" y="4027320"/>
-          <a:ext cx="2678040" cy="2720160"/>
+          <a:ext cx="2677680" cy="2719800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5197,15 +5197,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:colOff>210600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5218,8 +5218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="579240" y="1936800"/>
-          <a:ext cx="4466880" cy="3405600"/>
+          <a:off x="210600" y="2320200"/>
+          <a:ext cx="4635360" cy="3534120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5234,15 +5234,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:colOff>328680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>370800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>205200</xdr:rowOff>
+      <xdr:colOff>342360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5255,8 +5255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6372360" y="1600560"/>
-          <a:ext cx="5164200" cy="3764520"/>
+          <a:off x="6609600" y="2276280"/>
+          <a:ext cx="4898520" cy="3570840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,9 +5282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>575280</xdr:colOff>
+      <xdr:colOff>574920</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5298,7 +5298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="272160" y="11442960"/>
-          <a:ext cx="7281720" cy="5158080"/>
+          <a:ext cx="7281360" cy="5157720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5312,16 +5312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>337320</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>679680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>26640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5334,8 +5334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9409680" y="1573920"/>
-          <a:ext cx="5570280" cy="4338360"/>
+          <a:off x="9054000" y="1739520"/>
+          <a:ext cx="6325560" cy="4926600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5356,9 +5356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5372,7 +5372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="239400" y="16669800"/>
-          <a:ext cx="8227800" cy="3788640"/>
+          <a:ext cx="8227440" cy="3788280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5387,15 +5387,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5408,8 +5408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83520" y="1926000"/>
-          <a:ext cx="7593840" cy="3456000"/>
+          <a:off x="26280" y="2016360"/>
+          <a:ext cx="7593480" cy="3455640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5430,9 +5430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>330480</xdr:colOff>
+      <xdr:colOff>330120</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5446,7 +5446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8690760" y="9143640"/>
-          <a:ext cx="6992640" cy="4928400"/>
+          <a:ext cx="6992280" cy="4928040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5466,15 +5466,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>23040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:colOff>128160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:colOff>122040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5482,8 +5482,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23040" y="1756440"/>
-        <a:ext cx="4181400" cy="2440080"/>
+        <a:off x="128160" y="2014560"/>
+        <a:ext cx="4181040" cy="2439720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5507,9 +5507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5523,7 +5523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743760" y="1523880"/>
-          <a:ext cx="3669840" cy="2820960"/>
+          <a:ext cx="3669480" cy="2820600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5581,9 +5581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5593,7 +5593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4388760" y="1750320"/>
-          <a:ext cx="1301760" cy="1099800"/>
+          <a:ext cx="1301400" cy="1099440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,7 +5823,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -6563,7 +6563,7 @@
   <dimension ref="A1:U104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
     </sheetView>
@@ -9850,9 +9850,9 @@
   </sheetPr>
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="O36" activeCellId="0" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -11573,7 +11573,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{B3979073-D2F8-46E0-90BA-305C4C49D3E4}">
+          <x14:cfRule type="expression" priority="2" id="{807A4B2D-59AC-41CC-AC31-C12E43FD8CB7}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11591,7 +11591,7 @@
           <xm:sqref>K30:K43 K48:K54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{A95E43B1-2D14-484B-B483-ECB2719F4DBB}">
+          <x14:cfRule type="expression" priority="3" id="{237BB0BD-ECB5-4922-9AD4-27FAE0508D00}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11624,7 +11624,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15170,7 +15170,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16112,9 +16112,9 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17143,10 +17143,10 @@
   </sheetPr>
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="AB64" activeCellId="0" sqref="AB64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19357,7 +19357,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19868,7 +19868,7 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>

--- a/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
+++ b/ESF/Univ_of_Southern_California-ESF-2023-10-25_0151-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId3"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="520">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">Champlain cable</t>
   </si>
   <si>
-    <t xml:space="preserve">EXRAD-HVX6X</t>
+    <t xml:space="preserve">EXRAD-HVX4X</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.champcable.com/wp-content/uploads/2018/08/212.-SAE-EXRAD-150-HVFX-XLE-Shielded-Battery-Cable.pdf</t>
@@ -786,6 +786,18 @@
   </si>
   <si>
     <t xml:space="preserve">Fuse holder for voltage sense overcurrent protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fermerry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-AWG-Silicone Stranded Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Fermerry-Silicone-Flexible-Electric-Stranded/dp/B089D29FHC/ref=sr_1_3_sspa?keywords=22%2Bawg%2Bstranded%2Belectrical%2Bwire&amp;qid=1704931209&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All low voltage wiring</t>
   </si>
   <si>
     <t xml:space="preserve">Fuses</t>
@@ -3565,11 +3577,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87298118"/>
-        <c:axId val="49172898"/>
+        <c:axId val="88293249"/>
+        <c:axId val="19869499"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87298118"/>
+        <c:axId val="88293249"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3646,12 +3658,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49172898"/>
+        <c:crossAx val="19869499"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49172898"/>
+        <c:axId val="19869499"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3728,7 +3740,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87298118"/>
+        <c:crossAx val="88293249"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3992,11 +4004,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9720472"/>
-        <c:axId val="39613714"/>
+        <c:axId val="71259306"/>
+        <c:axId val="13860360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9720472"/>
+        <c:axId val="71259306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4074,12 +4086,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39613714"/>
+        <c:crossAx val="13860360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39613714"/>
+        <c:axId val="13860360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4155,7 +4167,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9720472"/>
+        <c:crossAx val="71259306"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4218,9 +4230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4234,7 +4246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8490960" y="403560"/>
-          <a:ext cx="7498440" cy="3850200"/>
+          <a:ext cx="7498080" cy="3849840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4255,9 +4267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>698040</xdr:colOff>
+      <xdr:colOff>697680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4271,7 +4283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101520" y="272880"/>
-          <a:ext cx="7608960" cy="2999520"/>
+          <a:ext cx="7608600" cy="2999160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4297,9 +4309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4308,7 +4320,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5082840" y="11624400"/>
-        <a:ext cx="4637880" cy="2885760"/>
+        <a:ext cx="4637520" cy="2885400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4327,9 +4339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>683280</xdr:colOff>
+      <xdr:colOff>682920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4343,7 +4355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="5622840"/>
-          <a:ext cx="1961640" cy="1521360"/>
+          <a:ext cx="1961280" cy="1521000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4364,9 +4376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>691560</xdr:colOff>
+      <xdr:colOff>691200</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4380,7 +4392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="117360" y="7233480"/>
-          <a:ext cx="1969920" cy="1502280"/>
+          <a:ext cx="1969560" cy="1501920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4401,9 +4413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>955440</xdr:colOff>
+      <xdr:colOff>955080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4418,7 +4430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2426040" y="5699160"/>
-          <a:ext cx="3540240" cy="2977920"/>
+          <a:ext cx="3539880" cy="2977560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4476,9 +4488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>290160</xdr:colOff>
+      <xdr:colOff>289800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>207000</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4492,7 +4504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7509240" y="5803920"/>
-          <a:ext cx="3784320" cy="2576880"/>
+          <a:ext cx="3783960" cy="2576520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4513,9 +4525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
+      <xdr:colOff>533520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4525,9 +4537,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="10334520" y="7194960"/>
-          <a:ext cx="1900440" cy="412920"/>
+          <a:ext cx="1900080" cy="412560"/>
           <a:chOff x="10334520" y="7194960"/>
-          <a:chExt cx="1900440" cy="412920"/>
+          <a:chExt cx="1900080" cy="412560"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4538,7 +4550,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10992240" y="7356960"/>
-            <a:ext cx="1242720" cy="250920"/>
+            <a:ext cx="1242360" cy="250560"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4592,7 +4604,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
             <a:off x="10334520" y="7194960"/>
-            <a:ext cx="659520" cy="290520"/>
+            <a:ext cx="659880" cy="290880"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4618,9 +4630,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>1062720</xdr:colOff>
+      <xdr:colOff>1062360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>201960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4635,7 +4647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13651920" y="5803920"/>
-          <a:ext cx="5791680" cy="2780280"/>
+          <a:ext cx="5791320" cy="2779920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4656,9 +4668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
+      <xdr:colOff>168120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4668,9 +4680,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="14779440" y="6337800"/>
-          <a:ext cx="1675440" cy="535680"/>
+          <a:ext cx="1675800" cy="536040"/>
           <a:chOff x="14779440" y="6337800"/>
-          <a:chExt cx="1675440" cy="535680"/>
+          <a:chExt cx="1675800" cy="536040"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp>
@@ -4681,7 +4693,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="14999400" y="6337800"/>
-            <a:ext cx="1053360" cy="275400"/>
+            <a:ext cx="1053000" cy="275040"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4735,7 +4747,7 @@
         <xdr:spPr>
           <a:xfrm flipH="1">
             <a:off x="14779440" y="6479640"/>
-            <a:ext cx="221760" cy="381240"/>
+            <a:ext cx="222120" cy="381600"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4757,7 +4769,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="16054560" y="6476400"/>
-            <a:ext cx="400680" cy="397440"/>
+            <a:ext cx="401040" cy="397800"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4783,9 +4795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>124200</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4800,7 +4812,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20970720" y="5555520"/>
-          <a:ext cx="4214160" cy="3180600"/>
+          <a:ext cx="4213800" cy="3180240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4821,9 +4833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>514080</xdr:colOff>
+      <xdr:colOff>513720</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4838,7 +4850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27786960" y="5573880"/>
-          <a:ext cx="3769200" cy="3181320"/>
+          <a:ext cx="3768840" cy="3180960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4859,9 +4871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>51120</xdr:colOff>
+      <xdr:colOff>50760</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4876,7 +4888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34736040" y="5550480"/>
-          <a:ext cx="3734640" cy="3181320"/>
+          <a:ext cx="3734280" cy="3180960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4897,9 +4909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>343080</xdr:colOff>
+      <xdr:colOff>342720</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4909,7 +4921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33680880" y="5722920"/>
-          <a:ext cx="894240" cy="691200"/>
+          <a:ext cx="893880" cy="690840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5013,9 +5025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>368640</xdr:colOff>
+      <xdr:colOff>368280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5025,7 +5037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27027000" y="5645520"/>
-          <a:ext cx="894240" cy="691200"/>
+          <a:ext cx="893880" cy="690840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5124,9 +5136,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
+      <xdr:colOff>44640</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5140,7 +5152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="53280" y="6881040"/>
-          <a:ext cx="6283440" cy="2665080"/>
+          <a:ext cx="6283080" cy="2664720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5161,9 +5173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
+      <xdr:colOff>114480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5177,7 +5189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5124600" y="4027320"/>
-          <a:ext cx="2677680" cy="2719800"/>
+          <a:ext cx="2677320" cy="2719440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5203,9 +5215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>658800</xdr:colOff>
+      <xdr:colOff>658440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5219,7 +5231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="210600" y="2320200"/>
-          <a:ext cx="4635360" cy="3534120"/>
+          <a:ext cx="4635000" cy="3533760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5240,9 +5252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>342360</xdr:colOff>
+      <xdr:colOff>342000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5256,7 +5268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6609600" y="2276280"/>
-          <a:ext cx="4898520" cy="3570840"/>
+          <a:ext cx="4898160" cy="3570480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,9 +5294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>574920</xdr:colOff>
+      <xdr:colOff>574560</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5298,7 +5310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="272160" y="11442960"/>
-          <a:ext cx="7281360" cy="5157720"/>
+          <a:ext cx="7281000" cy="5157360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5319,9 +5331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>26280</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5335,7 +5347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9054000" y="1739520"/>
-          <a:ext cx="6325560" cy="4926600"/>
+          <a:ext cx="6325200" cy="4926240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5356,9 +5368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>92520</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5372,7 +5384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="239400" y="16669800"/>
-          <a:ext cx="8227440" cy="3788280"/>
+          <a:ext cx="8227080" cy="3787920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5393,9 +5405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>641160</xdr:colOff>
+      <xdr:colOff>640800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5409,7 +5421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26280" y="2016360"/>
-          <a:ext cx="7593480" cy="3455640"/>
+          <a:ext cx="7593120" cy="3455280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5430,9 +5442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329760</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5446,7 +5458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8690760" y="9143640"/>
-          <a:ext cx="6992280" cy="4928040"/>
+          <a:ext cx="6991920" cy="4927680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5472,9 +5484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>121680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5483,7 +5495,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="128160" y="2014560"/>
-        <a:ext cx="4181040" cy="2439720"/>
+        <a:ext cx="4180680" cy="2439360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5507,9 +5519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5523,7 +5535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743760" y="1523880"/>
-          <a:ext cx="3669480" cy="2820600"/>
+          <a:ext cx="3669120" cy="2820240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5581,9 +5593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>107280</xdr:colOff>
+      <xdr:colOff>106920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5593,7 +5605,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4388760" y="1750320"/>
-          <a:ext cx="1301400" cy="1099440"/>
+          <a:ext cx="1301040" cy="1099080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,7 +5835,7 @@
   </sheetPr>
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -6562,10 +6574,10 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L65" activeCellId="0" sqref="L65"/>
+      <selection pane="bottomLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6907,7 +6919,7 @@
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="str">
         <f aca="true">CONCATENATE(INDIRECT(CONCATENATE("B",ROW(A22))), " ", INDIRECT(CONCATENATE("C",ROW(A22))))</f>
-        <v>Champlain cable EXRAD-HVX6X</v>
+        <v>Champlain cable EXRAD-HVX4X</v>
       </c>
       <c r="B22" s="29" t="s">
         <v>67</v>
@@ -6916,7 +6928,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="29" t="n">
-        <v>19.1</v>
+        <v>29.7</v>
       </c>
       <c r="E22" s="29" t="n">
         <v>1000</v>
@@ -6946,10 +6958,10 @@
       <c r="Q22" s="31"/>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="str">
         <f aca="true">CONCATENATE(INDIRECT(CONCATENATE("B",ROW(A23))), " ", INDIRECT(CONCATENATE("C",ROW(A23))))</f>
-        <v>Champlain cable EXRAD-HVX6X</v>
+        <v>Champlain cable EXRAD-HVX4X</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>67</v>
@@ -6958,7 +6970,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="29" t="n">
-        <v>19.1</v>
+        <v>29.7</v>
       </c>
       <c r="E23" s="29" t="n">
         <v>1000</v>
@@ -6988,10 +7000,10 @@
       <c r="Q23" s="31"/>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="str">
         <f aca="true">CONCATENATE(INDIRECT(CONCATENATE("B",ROW(A24))), " ", INDIRECT(CONCATENATE("C",ROW(A24))))</f>
-        <v>Champlain cable EXRAD-HVX6X</v>
+        <v>Champlain cable EXRAD-HVX4X</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>67</v>
@@ -7000,7 +7012,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="29" t="n">
-        <v>19.1</v>
+        <v>29.7</v>
       </c>
       <c r="E24" s="29" t="n">
         <v>1000</v>
@@ -7030,10 +7042,10 @@
       <c r="Q24" s="31"/>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="str">
         <f aca="true">CONCATENATE(INDIRECT(CONCATENATE("B",ROW(A25))), " ", INDIRECT(CONCATENATE("C",ROW(A25))))</f>
-        <v>Champlain cable EXRAD-HVX6X</v>
+        <v>Champlain cable EXRAD-HVX4X</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>67</v>
@@ -7042,7 +7054,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="29" t="n">
-        <v>19.1</v>
+        <v>29.7</v>
       </c>
       <c r="E25" s="29" t="n">
         <v>1000</v>
@@ -7072,10 +7084,10 @@
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="str">
         <f aca="true">CONCATENATE(INDIRECT(CONCATENATE("B",ROW(A26))), " ", INDIRECT(CONCATENATE("C",ROW(A26))))</f>
-        <v>Champlain cable EXRAD-HVX6X</v>
+        <v>Champlain cable EXRAD-HVX4X</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>67</v>
@@ -7084,7 +7096,7 @@
         <v>68</v>
       </c>
       <c r="D26" s="29" t="n">
-        <v>19.1</v>
+        <v>29.7</v>
       </c>
       <c r="E26" s="29" t="n">
         <v>1000</v>
@@ -7114,10 +7126,10 @@
       <c r="Q26" s="31"/>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="str">
         <f aca="true">CONCATENATE(INDIRECT(CONCATENATE("B",ROW(A27))), " ", INDIRECT(CONCATENATE("C",ROW(A27))))</f>
-        <v>Champlain cable EXRAD-HVX6X</v>
+        <v>Champlain cable EXRAD-HVX4X</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>67</v>
@@ -7126,7 +7138,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="29" t="n">
-        <v>19.1</v>
+        <v>29.7</v>
       </c>
       <c r="E27" s="29" t="n">
         <v>1000</v>
@@ -7198,23 +7210,39 @@
       <c r="Q28" s="31"/>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="str">
         <f aca="true">CONCATENATE(INDIRECT(CONCATENATE("B",ROW(A29))), " ", INDIRECT(CONCATENATE("C",ROW(A29))))</f>
-        <v> </v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="7"/>
+        <v>Fermerry 22-AWG-Silicone Stranded Wire</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E29" s="29" t="n">
+        <v>600</v>
+      </c>
+      <c r="F29" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" s="29" t="n">
+        <v>200</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="K29" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B29:J29)=9,"",IF(AND(COUNTBLANK(B29:J29)=1, G29&gt;=90),OKText,ErrorText))</f>
-        <v/>
+        <v>OK</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -7444,7 +7472,7 @@
         <v>Fuses </v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -7471,16 +7499,16 @@
         <v>52</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>45</v>
@@ -7508,16 +7536,16 @@
         <v>Eaton - Electronic Division BK/PCC-3/4-R</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D41" s="29" t="n">
         <v>450</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0.75</v>
@@ -7526,11 +7554,11 @@
         <v>5900</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K41" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B41:J41)=9,IncompleteText,IF(COUNTBLANK(B41:J41)=1,OKText,ErrorText))</f>
@@ -7542,7 +7570,7 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="R41" s="31"/>
     </row>
@@ -7552,16 +7580,16 @@
         <v>Mersen Semiconductor A50QS75-4Y</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D42" s="29" t="n">
         <v>500</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>75</v>
@@ -7570,11 +7598,11 @@
         <v>1200</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K42" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B42:J42)=9,"",IF(COUNTBLANK(B42:J42)=1,OKText,ErrorText))</f>
@@ -7594,16 +7622,16 @@
         <v>Bel Fuse Inc 0ADAP6000-RE</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D43" s="29" t="n">
         <v>600</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>6</v>
@@ -7612,11 +7640,11 @@
         <v>12</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K43" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B43:J43)=9,"",IF(COUNTBLANK(B43:J43)=1,OKText,ErrorText))</f>
@@ -7636,16 +7664,16 @@
         <v>Bel Fuse Inc 0ADGC9200-BE</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D44" s="29" t="n">
         <v>500</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>20</v>
@@ -7654,11 +7682,11 @@
         <v>1000</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K44" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B44:J44)=9,"",IF(COUNTBLANK(B44:J44)=1,OKText,ErrorText))</f>
@@ -7681,13 +7709,13 @@
         <v>59</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D45" s="29" t="n">
         <v>12</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>45</v>
@@ -7696,11 +7724,11 @@
         <v>1000</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K45" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B45:J45)=9,"",IF(COUNTBLANK(B45:J45)=1,OKText,ErrorText))</f>
@@ -7720,16 +7748,16 @@
         <v>Schurter 8020.5011.G</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D46" s="29" t="n">
         <v>400</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1</v>
@@ -7738,11 +7766,11 @@
         <v>1500</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K46" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B46:J46)=9,"",IF(COUNTBLANK(B46:J46)=1,OKText,ErrorText))</f>
@@ -7924,7 +7952,7 @@
         <v>Resistors </v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -7954,19 +7982,19 @@
         <v>52</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I55" s="33"/>
       <c r="J55" s="33"/>
@@ -7996,10 +8024,10 @@
         <v>Ohmite B20J750E</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D56" s="21" t="n">
         <v>750</v>
@@ -8014,16 +8042,16 @@
         <v>200</v>
       </c>
       <c r="H56" s="34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N56" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B56:M56)=12,IncompleteText,IF(COUNTBLANK(B56:M56)=3,OKText,ErrorText))</f>
@@ -8035,7 +8063,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="31" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U56" s="31"/>
     </row>
@@ -8045,10 +8073,10 @@
         <v>TE ROX9J30K</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D57" s="29" t="n">
         <v>750</v>
@@ -8063,16 +8091,16 @@
         <v>9</v>
       </c>
       <c r="H57" s="34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
       <c r="K57" s="30" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L57" s="30"/>
       <c r="M57" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N57" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B57:M57)=12,"",IF(COUNTBLANK(B57:M57)=3,OKText,ErrorText))</f>
@@ -8092,10 +8120,10 @@
         <v>TE RR03J1K5TB</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D58" s="29" t="n">
         <v>750</v>
@@ -8110,23 +8138,23 @@
         <v>3</v>
       </c>
       <c r="H58" s="34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="34"/>
       <c r="K58" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N58" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B58:M58)=12,"",IF(COUNTBLANK(B58:M58)=3,OKText,ErrorText))</f>
         <v>OK</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -8239,7 +8267,7 @@
         <v>Contactors/Relays </v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -8266,16 +8294,16 @@
         <v>52</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H64" s="25" t="s">
         <v>45</v>
@@ -8303,10 +8331,10 @@
         <v>TE Connectivity Potter &amp; Brumfield Relays 1462043-3</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D65" s="29" t="n">
         <v>220</v>
@@ -8318,28 +8346,28 @@
         <v>2</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K65" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B65:J65)=9,IncompleteText,IF(COUNTBLANK(B65:J65)=1,OKText,ErrorText))</f>
         <v>OK</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="31" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="R65" s="31"/>
     </row>
@@ -8349,10 +8377,10 @@
         <v>Gigavac GV241BAB</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D66" s="29" t="n">
         <v>800</v>
@@ -8364,14 +8392,14 @@
         <v>900</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K66" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B66:J66)=9,"",IF(COUNTBLANK(B66:J66)=1,OKText,ErrorText))</f>
@@ -8391,10 +8419,10 @@
         <v>Gigavac P115-BDA</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D67" s="29" t="n">
         <v>1500</v>
@@ -8406,14 +8434,14 @@
         <v>200</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K67" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B67:J67)=9,"",IF(COUNTBLANK(B67:J67)=1,OKText,ErrorText))</f>
@@ -8433,10 +8461,10 @@
         <v>Gigavac PNC113</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D68" s="29" t="n">
         <v>1500</v>
@@ -8448,14 +8476,14 @@
         <v>200</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K68" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B68:J68)=9,"",IF(COUNTBLANK(B68:J68)=1,OKText,ErrorText))</f>
@@ -8507,7 +8535,7 @@
         <v>Connectors </v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -8533,13 +8561,13 @@
         <v>52</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>55</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G72" s="25" t="s">
         <v>45</v>
@@ -8567,10 +8595,10 @@
         <v>Amphenol MINIMSDF000R</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D73" s="29" t="n">
         <v>1000</v>
@@ -8582,11 +8610,11 @@
         <v>50</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J73" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B73:I73)=8,IncompleteText,IF(COUNTBLANK(B73:I73)=1,OKText,ErrorText))</f>
@@ -8598,7 +8626,7 @@
       <c r="N73" s="7"/>
       <c r="O73" s="7"/>
       <c r="P73" s="31" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q73" s="31"/>
     </row>
@@ -8608,10 +8636,10 @@
         <v>Molex 334724001</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D74" s="29" t="n">
         <v>14</v>
@@ -8623,18 +8651,18 @@
         <v>0.75</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J74" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B74:I74)=8,"",IF(COUNTBLANK(B74:I74)=1,OKText,ErrorText))</f>
         <v>OK</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -8649,10 +8677,10 @@
         <v>Mueller BU-P72930-0</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D75" s="29" t="n">
         <v>1000</v>
@@ -8664,18 +8692,18 @@
         <v>0.35</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H75" s="30"/>
       <c r="I75" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J75" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B75:I75)=8,"",IF(COUNTBLANK(B75:I75)=1,OKText,ErrorText))</f>
         <v>OK</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -8690,10 +8718,10 @@
         <v>Mueller BU-P72930-2</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D76" s="29" t="n">
         <v>1000</v>
@@ -8705,18 +8733,18 @@
         <v>0.35</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H76" s="30"/>
       <c r="I76" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J76" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B76:I76)=8,"",IF(COUNTBLANK(B76:I76)=1,OKText,ErrorText))</f>
         <v>OK</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -8731,10 +8759,10 @@
         <v>Amphenol UPCR012ALS2</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D77" s="29" t="n">
         <v>1000</v>
@@ -8746,11 +8774,11 @@
         <v>22</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J77" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B77:I77)=8,"",IF(COUNTBLANK(B77:I77)=1,OKText,ErrorText))</f>
@@ -8770,10 +8798,10 @@
         <v>Amphenol UPCR012ALS1</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D78" s="29" t="n">
         <v>1000</v>
@@ -8785,18 +8813,18 @@
         <v>22</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H78" s="30"/>
       <c r="I78" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J78" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B78:I78)=8,"",IF(COUNTBLANK(B78:I78)=1,OKText,ErrorText))</f>
         <v>OK</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -8811,10 +8839,10 @@
         <v>TE Connectivity DTM06-12SA</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D79" s="29" t="n">
         <v>167</v>
@@ -8823,14 +8851,14 @@
         <v>7.5</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J79" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B79:I79)=8,"",IF(COUNTBLANK(B79:I79)=1,OKText,ErrorText))</f>
@@ -8850,10 +8878,10 @@
         <v>TE Connectivity DTM04-12PA-L012</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D80" s="29" t="n">
         <v>167</v>
@@ -8862,14 +8890,14 @@
         <v>7.5</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J80" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B80:I80)=8,"",IF(COUNTBLANK(B80:I80)=1,OKText,ErrorText))</f>
@@ -8889,10 +8917,10 @@
         <v>TE Connectivity DT04-6P-CL09</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D81" s="29" t="n">
         <v>167</v>
@@ -8901,14 +8929,14 @@
         <v>13</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J81" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B81:I81)=8,"",IF(COUNTBLANK(B81:I81)=1,OKText,ErrorText))</f>
@@ -8928,10 +8956,10 @@
         <v>TE Connectivity DT06-6S</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D82" s="29" t="n">
         <v>167</v>
@@ -8940,14 +8968,14 @@
         <v>13</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J82" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B82:I82)=8,"",IF(COUNTBLANK(B82:I82)=1,OKText,ErrorText))</f>
@@ -9198,7 +9226,7 @@
         <v>Insulating Materials </v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -9226,19 +9254,19 @@
         <v>52</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G94" s="24" t="s">
         <v>56</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I94" s="25" t="s">
         <v>45</v>
@@ -9266,10 +9294,10 @@
         <v>DuPont 845</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D95" s="29" t="n">
         <v>0.25</v>
@@ -9285,28 +9313,28 @@
         <v>400</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L95" s="5" t="str">
         <f aca="false">IF(COUNTBLANK(B95:K95)=10,IncompleteText,IF(AND(COUNTBLANK(B95:K95)=1,G95&gt;=90),OKText,ErrorText))</f>
         <v>OK</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N95" s="7"/>
       <c r="O95" s="7"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="S95" s="31"/>
     </row>
@@ -9807,30 +9835,31 @@
     <hyperlink ref="H26" r:id="rId9" display="https://www.champcable.com/wp-content/uploads/2018/08/212.-SAE-EXRAD-150-HVFX-XLE-Shielded-Battery-Cable.pdf"/>
     <hyperlink ref="H27" r:id="rId10" display="https://www.champcable.com/wp-content/uploads/2018/08/212.-SAE-EXRAD-150-HVFX-XLE-Shielded-Battery-Cable.pdf"/>
     <hyperlink ref="H28" r:id="rId11" display="https://www.eaton.com/content/dam/eaton/products/electronic-components/resources/data-sheet/eaton-pcs-fuse-holder-data-sheet.pdf"/>
-    <hyperlink ref="H41" r:id="rId12" display="https://www.eaton.com/content/dam/eaton/products/electronic-components/resources/data-sheet/eaton-pc-tron-subminiature-radial-leaded-fuses-data-sheet.pdf"/>
-    <hyperlink ref="H42" r:id="rId13" display="https://www.grainger.com/ec/pdf/6XPF4_1.pdf"/>
-    <hyperlink ref="H43" r:id="rId14" display="https://www.belfuse.com/resources/datasheets/circuitprotection/ds-cp-0adax-series.pdf"/>
-    <hyperlink ref="H44" r:id="rId15" display="https://www.belfuse.com/resources/datasheets/circuitprotection/ds-CP-0ADG-series.pdf"/>
-    <hyperlink ref="H45" r:id="rId16" display="https://www.energusps.com/web/binary/saveas?filename_field=datas_fname&amp;field=datas&amp;model=ir.attachment&amp;id=4223"/>
-    <hyperlink ref="H46" r:id="rId17" display="https://us.schurter.com/en/datasheet/typ_SHT_6.3x32.pdf"/>
-    <hyperlink ref="K56" r:id="rId18" display="https://www.ohmite.com/assets/docs/res_200.pdf?r=false"/>
-    <hyperlink ref="K57" r:id="rId19" display="https://www.te.com/usa-en/product-6-2176416-7.datasheet.pdf"/>
-    <hyperlink ref="K58" r:id="rId20" display="https://www.te.com/usa-en/product-8-1879354-9.datasheet.pdf"/>
-    <hyperlink ref="H65" r:id="rId21" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=1462043-2&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
-    <hyperlink ref="H66" r:id="rId22" display="https://www.sensata.com/sites/default/files/a/sensata-gigavac-gv24-sereies-800v-contactors-datasheet.pdf"/>
-    <hyperlink ref="H67" r:id="rId23" display="https://www.sensata.com/sites/default/files/a/sensata-gigavac-p115-series-minitactor-contactors-datasheet.pdf"/>
-    <hyperlink ref="H68" r:id="rId24" display="https://www.sensata.com/sites/default/files/a/sensata-gigavac-pnc113-series-minitactor-contactors-datasheet.pdf"/>
-    <hyperlink ref="G73" r:id="rId25" display="https://www.elecbee.com/en-12773-m5-4-pin-connector-aviation-socket-female-waterproof-shield-rear-blukhead-solder-for-cable?utm_term=&amp;utm_campaign=shopping_%E5%B1%95%E7%A4%BA%E7%BE%8E%E5%9B%BD2021/03/05&amp;utm_source=adwords&amp;utm_medium=ppc&amp;hsa_acc=9958698819&amp;hsa_cam=12474875514&amp;hsa_grp=119136185512&amp;hsa_ad=502712486143&amp;hsa_src=g&amp;hsa_tgt=pla-298884436745&amp;hsa_kw=&amp;hsa_mt=&amp;hsa_net=adwords&amp;hsa_ver=3&amp;gclid=Cj0KCQiAzMGNBhCyARIsANpUkzN8xTuQkni1oJOhlk2uGRN5mF2Uarn9wYwaJikSMTWZl4Fa10FFO04aAqI0EALw_wcB"/>
-    <hyperlink ref="G74" r:id="rId26" display="https://www.molex.com/webdocs/datasheets/pdf/en-us/0334724001_CRIMP_HOUSINGS.pdf"/>
-    <hyperlink ref="G75" r:id="rId27" display="https://www.muellerelectric.com/product_files/986/DS-BU-P72930-@.pdf"/>
-    <hyperlink ref="G76" r:id="rId28" display="https://www.muellerelectric.com/product_files/986/DS-BU-P72930-@.pdf"/>
-    <hyperlink ref="G77" r:id="rId29" display="https://www.farnell.com/datasheets/2013715.pdf"/>
-    <hyperlink ref="G78" r:id="rId30" display="https://www.farnell.com/datasheets/2013715.pdf"/>
-    <hyperlink ref="G79" r:id="rId31" display="https://www.te.com/usa-en/product-DTM06-12SA.datasheet.pdf"/>
-    <hyperlink ref="G80" r:id="rId32" display="https://www.te.com/usa-en/product-DTM04-12PA-L012.datasheet.pdf"/>
-    <hyperlink ref="G81" r:id="rId33" display="https://www.te.com/usa-en/product-DT04-6P-CL09.datasheet.pdf"/>
-    <hyperlink ref="G82" r:id="rId34" display="https://www.te.com/usa-en/product-DT06-6S.datasheet.pdf"/>
-    <hyperlink ref="I95" r:id="rId35" display="https://www.dupont.com/content/dam/dupont/amer/us/en/safety/public/documents/en/DPT16_21668_Nomex_410_Tech_Data_Sheet_me03_REFERENCE.pdf"/>
+    <hyperlink ref="H29" r:id="rId12" display="https://www.amazon.com/Fermerry-Silicone-Flexible-Electric-Stranded/dp/B089D29FHC/ref=sr_1_3_sspa?keywords=22%2Bawg%2Bstranded%2Belectrical%2Bwire&amp;qid=1704931209&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1"/>
+    <hyperlink ref="H41" r:id="rId13" display="https://www.eaton.com/content/dam/eaton/products/electronic-components/resources/data-sheet/eaton-pc-tron-subminiature-radial-leaded-fuses-data-sheet.pdf"/>
+    <hyperlink ref="H42" r:id="rId14" display="https://www.grainger.com/ec/pdf/6XPF4_1.pdf"/>
+    <hyperlink ref="H43" r:id="rId15" display="https://www.belfuse.com/resources/datasheets/circuitprotection/ds-cp-0adax-series.pdf"/>
+    <hyperlink ref="H44" r:id="rId16" display="https://www.belfuse.com/resources/datasheets/circuitprotection/ds-CP-0ADG-series.pdf"/>
+    <hyperlink ref="H45" r:id="rId17" display="https://www.energusps.com/web/binary/saveas?filename_field=datas_fname&amp;field=datas&amp;model=ir.attachment&amp;id=4223"/>
+    <hyperlink ref="H46" r:id="rId18" display="https://us.schurter.com/en/datasheet/typ_SHT_6.3x32.pdf"/>
+    <hyperlink ref="K56" r:id="rId19" display="https://www.ohmite.com/assets/docs/res_200.pdf?r=false"/>
+    <hyperlink ref="K57" r:id="rId20" display="https://www.te.com/usa-en/product-6-2176416-7.datasheet.pdf"/>
+    <hyperlink ref="K58" r:id="rId21" display="https://www.te.com/usa-en/product-8-1879354-9.datasheet.pdf"/>
+    <hyperlink ref="H65" r:id="rId22" display="https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=1462043-2&amp;DocType=Customer+Drawing&amp;DocLang=English"/>
+    <hyperlink ref="H66" r:id="rId23" display="https://www.sensata.com/sites/default/files/a/sensata-gigavac-gv24-sereies-800v-contactors-datasheet.pdf"/>
+    <hyperlink ref="H67" r:id="rId24" display="https://www.sensata.com/sites/default/files/a/sensata-gigavac-p115-series-minitactor-contactors-datasheet.pdf"/>
+    <hyperlink ref="H68" r:id="rId25" display="https://www.sensata.com/sites/default/files/a/sensata-gigavac-pnc113-series-minitactor-contactors-datasheet.pdf"/>
+    <hyperlink ref="G73" r:id="rId26" display="https://www.elecbee.com/en-12773-m5-4-pin-connector-aviation-socket-female-waterproof-shield-rear-blukhead-solder-for-cable?utm_term=&amp;utm_campaign=shopping_%E5%B1%95%E7%A4%BA%E7%BE%8E%E5%9B%BD2021/03/05&amp;utm_source=adwords&amp;utm_medium=ppc&amp;hsa_acc=9958698819&amp;hsa_cam=12474875514&amp;hsa_grp=119136185512&amp;hsa_ad=502712486143&amp;hsa_src=g&amp;hsa_tgt=pla-298884436745&amp;hsa_kw=&amp;hsa_mt=&amp;hsa_net=adwords&amp;hsa_ver=3&amp;gclid=Cj0KCQiAzMGNBhCyARIsANpUkzN8xTuQkni1oJOhlk2uGRN5mF2Uarn9wYwaJikSMTWZl4Fa10FFO04aAqI0EALw_wcB"/>
+    <hyperlink ref="G74" r:id="rId27" display="https://www.molex.com/webdocs/datasheets/pdf/en-us/0334724001_CRIMP_HOUSINGS.pdf"/>
+    <hyperlink ref="G75" r:id="rId28" display="https://www.muellerelectric.com/product_files/986/DS-BU-P72930-@.pdf"/>
+    <hyperlink ref="G76" r:id="rId29" display="https://www.muellerelectric.com/product_files/986/DS-BU-P72930-@.pdf"/>
+    <hyperlink ref="G77" r:id="rId30" display="https://www.farnell.com/datasheets/2013715.pdf"/>
+    <hyperlink ref="G78" r:id="rId31" display="https://www.farnell.com/datasheets/2013715.pdf"/>
+    <hyperlink ref="G79" r:id="rId32" display="https://www.te.com/usa-en/product-DTM06-12SA.datasheet.pdf"/>
+    <hyperlink ref="G80" r:id="rId33" display="https://www.te.com/usa-en/product-DTM04-12PA-L012.datasheet.pdf"/>
+    <hyperlink ref="G81" r:id="rId34" display="https://www.te.com/usa-en/product-DT04-6P-CL09.datasheet.pdf"/>
+    <hyperlink ref="G82" r:id="rId35" display="https://www.te.com/usa-en/product-DT06-6S.datasheet.pdf"/>
+    <hyperlink ref="I95" r:id="rId36" display="https://www.dupont.com/content/dam/dupont/amer/us/en/safety/public/documents/en/DPT16_21668_Nomex_410_Tech_Data_Sheet_me03_REFERENCE.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
@@ -9839,7 +9868,7 @@
     <oddHeader/>
     <oddFooter>&amp;R&amp;1#&amp;"Calibri,Regular"&amp;10&amp;Kff0000Public</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -9850,8 +9879,8 @@
   </sheetPr>
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="O36" activeCellId="0" sqref="O36"/>
     </sheetView>
@@ -9874,7 +9903,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -9887,7 +9916,7 @@
       <c r="J2" s="38"/>
       <c r="K2" s="38"/>
       <c r="M2" s="38" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
@@ -10686,7 +10715,7 @@
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -10702,7 +10731,7 @@
         <v>OK</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -10750,7 +10779,7 @@
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="22" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -10769,7 +10798,7 @@
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
       <c r="O30" s="22" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -10790,7 +10819,7 @@
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="22" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -10809,7 +10838,7 @@
       <c r="M31" s="46"/>
       <c r="N31" s="46"/>
       <c r="O31" s="22" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
@@ -10830,7 +10859,7 @@
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="22" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -10849,7 +10878,7 @@
       <c r="M32" s="46"/>
       <c r="N32" s="46"/>
       <c r="O32" s="22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
@@ -10870,7 +10899,7 @@
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="C33" s="22" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -10889,7 +10918,7 @@
       <c r="M33" s="46"/>
       <c r="N33" s="46"/>
       <c r="O33" s="22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
@@ -10910,7 +10939,7 @@
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -10929,7 +10958,7 @@
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
       <c r="O34" s="22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
@@ -10950,7 +10979,7 @@
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -10969,7 +10998,7 @@
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
       <c r="O35" s="22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
@@ -10990,7 +11019,7 @@
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -11009,7 +11038,7 @@
       <c r="M36" s="46"/>
       <c r="N36" s="46"/>
       <c r="O36" s="22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -11030,7 +11059,7 @@
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -11049,7 +11078,7 @@
       <c r="M37" s="46"/>
       <c r="N37" s="46"/>
       <c r="O37" s="22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -11070,7 +11099,7 @@
       <c r="A38" s="46"/>
       <c r="B38" s="46"/>
       <c r="C38" s="22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -11087,11 +11116,11 @@
         <v>OK</v>
       </c>
       <c r="M38" s="46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N38" s="46"/>
       <c r="O38" s="22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
@@ -11112,7 +11141,7 @@
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -11129,11 +11158,11 @@
         <v>OK</v>
       </c>
       <c r="M39" s="46" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N39" s="46"/>
       <c r="O39" s="22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
@@ -11152,11 +11181,11 @@
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -11175,7 +11204,7 @@
       <c r="M40" s="46"/>
       <c r="N40" s="46"/>
       <c r="O40" s="22" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
@@ -11196,7 +11225,7 @@
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="22" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -11215,7 +11244,7 @@
       <c r="M41" s="46"/>
       <c r="N41" s="46"/>
       <c r="O41" s="22" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -11236,7 +11265,7 @@
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -11255,11 +11284,11 @@
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="46" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -11280,7 +11309,7 @@
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -11313,11 +11342,11 @@
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="43" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B48" s="43"/>
       <c r="C48" s="22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -11336,11 +11365,11 @@
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="46" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B49" s="46"/>
       <c r="C49" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -11359,11 +11388,11 @@
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="46" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -11382,11 +11411,11 @@
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="46" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B51" s="46"/>
       <c r="C51" s="22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -11405,11 +11434,11 @@
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="46" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="22" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -11428,11 +11457,11 @@
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="46" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -11451,11 +11480,11 @@
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="46" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -11573,7 +11602,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{807A4B2D-59AC-41CC-AC31-C12E43FD8CB7}">
+          <x14:cfRule type="expression" priority="2" id="{64D4A24E-17D1-478D-A044-A810BC90B566}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11591,7 +11620,7 @@
           <xm:sqref>K30:K43 K48:K54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{237BB0BD-ECB5-4922-9AD4-27FAE0508D00}">
+          <x14:cfRule type="expression" priority="3" id="{D23E8925-EEC0-40B4-87F6-F13458508579}">
             <xm:f>Accumulator!$D$62 = "Team Designed"</xm:f>
             <x14:dxf>
               <font>
@@ -11621,7 +11650,7 @@
   </sheetPr>
   <dimension ref="A1:BA90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
@@ -11659,13 +11688,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G3" s="5" t="str">
         <f aca="false">IF(ISBLANK(E3), IncompleteText, OKText)</f>
@@ -11674,7 +11703,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -11693,7 +11722,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -11708,7 +11737,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -11720,7 +11749,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -11735,7 +11764,7 @@
         <v>OK</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -11747,7 +11776,7 @@
         <v>OK</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -11758,7 +11787,7 @@
         <v>BLANK</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -11781,12 +11810,12 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="34" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E9" s="34"/>
       <c r="J9" s="5" t="str">
@@ -11794,13 +11823,13 @@
         <v>OK</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="5" t="str">
@@ -11808,7 +11837,7 @@
         <v>OK</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
@@ -11819,13 +11848,13 @@
         <v>BLANK</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
       <c r="AB9" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AC9" s="7"/>
       <c r="AD9" s="5" t="str">
@@ -11842,36 +11871,36 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="33" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I10" s="33"/>
       <c r="K10" s="22" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="5" t="str">
@@ -11879,7 +11908,7 @@
         <v>OK</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -11895,7 +11924,7 @@
         <v>BLANK</v>
       </c>
       <c r="X10" s="22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
@@ -11933,14 +11962,14 @@
         <v>30</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="19" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="5" t="str">
@@ -11948,7 +11977,7 @@
         <v>OK</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -11959,7 +11988,7 @@
         <v/>
       </c>
       <c r="X11" s="22" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
@@ -12014,7 +12043,7 @@
         <v>OK</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
@@ -12030,7 +12059,7 @@
         <v>OK</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -12042,13 +12071,13 @@
         <v>19</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
       <c r="AB12" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AC12" s="7"/>
       <c r="AD12" s="5" t="str">
@@ -12094,7 +12123,7 @@
         <v>OK</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -12110,14 +12139,14 @@
         <v>OK</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="X13" s="22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
@@ -12172,7 +12201,7 @@
         <v>OK</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -12184,12 +12213,12 @@
         <v/>
       </c>
       <c r="R14" s="22" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="34" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="V14" s="34"/>
       <c r="W14" s="5" t="str">
@@ -12197,7 +12226,7 @@
         <v>OK</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
@@ -12252,7 +12281,7 @@
         <v>OK</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
@@ -12264,7 +12293,7 @@
         <v/>
       </c>
       <c r="R15" s="22" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
@@ -12280,13 +12309,13 @@
         <v>OK</v>
       </c>
       <c r="X15" s="22" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AC15" s="7"/>
       <c r="AD15" s="5" t="str">
@@ -12332,7 +12361,7 @@
         <v>OK</v>
       </c>
       <c r="K16" s="52" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
@@ -12340,7 +12369,7 @@
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="R16" s="22" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
@@ -12352,7 +12381,7 @@
         <v>19</v>
       </c>
       <c r="X16" s="22" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
@@ -12407,7 +12436,7 @@
         <v>OK</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
@@ -12416,7 +12445,7 @@
         <v>55</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="5" t="str">
         <f aca="false">IF(ISBLANK(O17), IncompleteText, OKText)</f>
@@ -12439,7 +12468,7 @@
         <v>OK</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
@@ -12494,13 +12523,13 @@
         <v>OK</v>
       </c>
       <c r="K18" s="53" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
       <c r="N18" s="53"/>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="5" t="str">
@@ -12508,7 +12537,7 @@
         <v>OK</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -12553,7 +12582,7 @@
         <v>OK</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -12567,12 +12596,12 @@
         <v>OK</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="34" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="V19" s="34"/>
       <c r="W19" s="5" t="str">
@@ -12610,13 +12639,13 @@
         <v/>
       </c>
       <c r="K20" s="22" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="34" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="5" t="str">
@@ -12624,7 +12653,7 @@
         <v>OK</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
@@ -12666,7 +12695,7 @@
         <v/>
       </c>
       <c r="K21" s="22" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -12681,7 +12710,7 @@
         <v>OK</v>
       </c>
       <c r="R21" s="22" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
@@ -12727,7 +12756,7 @@
         <v/>
       </c>
       <c r="K22" s="52" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
@@ -12765,13 +12794,13 @@
         <v/>
       </c>
       <c r="K23" s="22" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
       <c r="O23" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="5" t="str">
@@ -12809,14 +12838,14 @@
         <v/>
       </c>
       <c r="K24" s="22" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="29"/>
       <c r="P24" s="51" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="45" t="str">
         <f aca="false">IF(O23="On cell terminal","",IF(ISBLANK(O24),IncompleteText,IF(O24&lt;10,OKText,ErrorText)))</f>
@@ -12853,7 +12882,7 @@
         <v/>
       </c>
       <c r="K25" s="22" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -12862,7 +12891,7 @@
         <v>5</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="5" t="str">
         <f aca="false">IF(ISBLANK(O25), IncompleteText, OKText)</f>
@@ -12899,7 +12928,7 @@
         <v/>
       </c>
       <c r="K26" s="22" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
@@ -12938,7 +12967,7 @@
         <v/>
       </c>
       <c r="K27" s="22" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
@@ -12980,14 +13009,14 @@
         <v/>
       </c>
       <c r="K28" s="22" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="29"/>
       <c r="P28" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="5" t="str">
         <f aca="false">IF(ISBLANK($O$26), "", IF(ISBLANK(O28), IncompleteText, OKText))</f>
@@ -13024,14 +13053,14 @@
         <v/>
       </c>
       <c r="K29" s="22" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="29"/>
       <c r="P29" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="5" t="str">
         <f aca="false">IF(ISBLANK($O$26), "", IF(ISBLANK(O29), IncompleteText, OKText))</f>
@@ -13047,7 +13076,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K30" s="22" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
@@ -13057,7 +13086,7 @@
         <v>100</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q30" s="5" t="str">
         <f aca="false">IF(ISERROR(O30),IncompleteText,IF(O30&lt;20,ErrorText,OKText))</f>
@@ -13068,7 +13097,7 @@
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="38" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -13078,7 +13107,7 @@
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="J33" s="57" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
@@ -13088,7 +13117,7 @@
       <c r="P33" s="57"/>
       <c r="Q33" s="57"/>
       <c r="S33" s="38" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="T33" s="38"/>
       <c r="U33" s="38"/>
@@ -13098,7 +13127,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
       <c r="AB33" s="38" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AC33" s="38"/>
       <c r="AD33" s="38"/>
@@ -13108,7 +13137,7 @@
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
       <c r="AK33" s="57" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AL33" s="57"/>
       <c r="AM33" s="57"/>
@@ -13118,7 +13147,7 @@
       <c r="AQ33" s="57"/>
       <c r="AR33" s="57"/>
       <c r="AT33" s="38" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AU33" s="38"/>
       <c r="AV33" s="38"/>
@@ -14030,7 +14059,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -14043,7 +14072,7 @@
         <v>OK</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -14056,7 +14085,7 @@
         <v>OK</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -14069,7 +14098,7 @@
         <v>OK</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
@@ -14082,7 +14111,7 @@
         <v>OK</v>
       </c>
       <c r="AK52" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
@@ -14095,7 +14124,7 @@
         <v>OK</v>
       </c>
       <c r="AT52" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
@@ -14110,7 +14139,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="20" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -14126,7 +14155,7 @@
         <v>OK</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -14142,7 +14171,7 @@
         <v>OK</v>
       </c>
       <c r="S53" s="22" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="T53" s="22"/>
       <c r="U53" s="22"/>
@@ -14158,7 +14187,7 @@
         <v>OK</v>
       </c>
       <c r="AB53" s="22" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC53" s="22"/>
       <c r="AD53" s="22"/>
@@ -14174,7 +14203,7 @@
         <v>OK</v>
       </c>
       <c r="AK53" s="22" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AL53" s="22"/>
       <c r="AM53" s="22"/>
@@ -14190,7 +14219,7 @@
         <v>OK</v>
       </c>
       <c r="AT53" s="22" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AU53" s="22"/>
       <c r="AV53" s="22"/>
@@ -14208,7 +14237,7 @@
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -14224,7 +14253,7 @@
         <v>OK</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -14240,7 +14269,7 @@
         <v>OK</v>
       </c>
       <c r="S54" s="22" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="T54" s="22"/>
       <c r="U54" s="22"/>
@@ -14294,7 +14323,7 @@
     </row>
     <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="20" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -14341,7 +14370,7 @@
       <c r="AG55" s="11"/>
       <c r="AH55" s="11"/>
       <c r="AI55" s="59" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK55" s="11"/>
       <c r="AL55" s="11"/>
@@ -14351,7 +14380,7 @@
       <c r="AP55" s="11"/>
       <c r="AQ55" s="11"/>
       <c r="AR55" s="31" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AT55" s="11"/>
       <c r="AU55" s="11"/>
@@ -14361,7 +14390,7 @@
       <c r="AY55" s="11"/>
       <c r="AZ55" s="11"/>
       <c r="BA55" s="31" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" s="60" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14385,7 +14414,7 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="31" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
@@ -14395,7 +14424,7 @@
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="59" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
@@ -14424,7 +14453,7 @@
     </row>
     <row r="57" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="61" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B57" s="61"/>
       <c r="C57" s="61"/>
@@ -14433,7 +14462,7 @@
       <c r="F57" s="61"/>
       <c r="G57" s="61"/>
       <c r="H57" s="59" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -14554,7 +14583,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -14565,18 +14594,18 @@
         <v>OK</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H61" s="58"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
       <c r="D62" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="5" t="str">
@@ -14584,18 +14613,18 @@
         <v>OK</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="45" t="str">
@@ -14607,7 +14636,7 @@
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -14627,7 +14656,7 @@
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -14645,7 +14674,7 @@
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -14654,7 +14683,7 @@
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -14669,7 +14698,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -14692,7 +14721,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="22" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -14715,7 +14744,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="22" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -14730,129 +14759,129 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="51" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="51" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="51" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="51" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="51" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="51" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="51" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="51" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="51" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="51" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="51" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="51" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
     </row>
     <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="51" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="51" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="51" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="51" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="51" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -15169,7 +15198,7 @@
   </sheetPr>
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -15191,7 +15220,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -15202,7 +15231,7 @@
         <v>OK</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -15213,7 +15242,7 @@
         <v>OK</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -15230,12 +15259,12 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="str">
@@ -15243,12 +15272,12 @@
         <v>OK</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="5" t="str">
@@ -15256,12 +15285,12 @@
         <v>OK</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="5" t="str">
@@ -15269,13 +15298,13 @@
         <v>OK</v>
       </c>
       <c r="S3" s="63" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="T3" s="63"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -15287,7 +15316,7 @@
         <v>OK</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
@@ -15299,7 +15328,7 @@
         <v>OK</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
@@ -15316,7 +15345,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -15328,7 +15357,7 @@
         <v>OK</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -15340,7 +15369,7 @@
         <v>OK</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -15357,7 +15386,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -15366,10 +15395,10 @@
         <v>375</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -15378,10 +15407,10 @@
         <v>7500</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -15390,7 +15419,7 @@
         <v>15000</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="R6" s="5" t="str">
         <f aca="false">IF(MaxTSVoltage&lt;=200,IF(P6=5000, OKText, ErrorText),IF(MaxTSVoltage &gt; 400, IF(P6=15000, OKText, ErrorText), IF(P6=10000, OKText, ErrorText)))</f>
@@ -15401,7 +15430,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -15410,10 +15439,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -15422,10 +15451,10 @@
         <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
@@ -15434,7 +15463,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="R7" s="5" t="str">
         <f aca="false">IF(P7&lt;MaxTSVoltage^2/P6, ErrorText, OKText)</f>
@@ -15445,7 +15474,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -15454,10 +15483,10 @@
         <v>400</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -15466,14 +15495,14 @@
         <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L8" s="5" t="str">
         <f aca="false">IF(J8&lt;MaxTSVoltage^2/DischargeRes, ErrorText, OKText)</f>
         <v>OK</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -15493,7 +15522,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -15509,7 +15538,7 @@
         <v>OK</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -15527,7 +15556,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -15535,14 +15564,14 @@
         <v>0.28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F10" s="5" t="str">
         <f aca="false">IF(ISBLANK(BusCap), IncompleteText, OKText)</f>
         <v>OK</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -15551,17 +15580,17 @@
         <v>21.676032</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="5" t="str">
@@ -15569,7 +15598,7 @@
         <v>OK</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -15583,7 +15612,7 @@
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -15591,14 +15620,14 @@
         <v>2.1</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F12" s="45" t="str">
         <f aca="false">IF(D11&lt;&gt;"Time", "", IF(ISBLANK(D12), IncompleteText, IF(D12 &lt; MAX(D17*2, D17+0.5), ErrorText, OKText)))</f>
         <v>OK</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -15607,12 +15636,12 @@
         <v>4.00068512452362</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -15625,12 +15654,12 @@
         <v/>
       </c>
       <c r="G13" s="22" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="5" t="str">
@@ -15640,20 +15669,20 @@
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="29"/>
       <c r="E14" s="51" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F14" s="45" t="str">
         <f aca="false">IF(D11&lt;&gt;"Ratio", "", IF(ISBLANK(D14), IncompleteText, IF(D14 &lt; 90, ErrorText, OKText)))</f>
         <v/>
       </c>
       <c r="G14" s="22" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -15671,7 +15700,7 @@
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -15680,10 +15709,10 @@
         <v>433.52064</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -15701,7 +15730,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -15713,7 +15742,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -15728,7 +15757,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -15737,7 +15766,7 @@
         <v>0.241771434764375</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G17" s="62" t="s">
         <v>58</v>
@@ -15746,7 +15775,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="65" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
@@ -15755,16 +15784,16 @@
         <v>22.532235264</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G18" s="66" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H18" s="66"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -15773,17 +15802,17 @@
         <v>93.1964327628673</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="5" t="str">
@@ -15793,7 +15822,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -15811,7 +15840,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -15841,7 +15870,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="68" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
@@ -16111,7 +16140,7 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
@@ -16133,7 +16162,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -16160,7 +16189,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="str">
@@ -16182,7 +16211,7 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="69" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="5" t="str">
@@ -16204,7 +16233,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="5" t="str">
@@ -16221,12 +16250,12 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="34" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>17</v>
@@ -16245,7 +16274,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -16269,12 +16298,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="34" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E8" s="49" t="s">
         <v>17</v>
@@ -16293,7 +16322,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -16317,7 +16346,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -16325,7 +16354,7 @@
         <v>6.6</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F10" s="5" t="str">
         <f aca="false">IF(ISBLANK(D10), IncompleteText, OKText)</f>
@@ -16341,7 +16370,7 @@
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -16357,7 +16386,7 @@
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -16367,7 +16396,7 @@
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
@@ -16703,7 +16732,7 @@
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -16716,7 +16745,7 @@
         <v>OK</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -16755,7 +16784,7 @@
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="22" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -16769,11 +16798,11 @@
         <v>OK</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K34" s="46"/>
       <c r="L34" s="22" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -16791,7 +16820,7 @@
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -16805,11 +16834,11 @@
         <v>OK</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K35" s="46"/>
       <c r="L35" s="22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -16827,7 +16856,7 @@
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -16841,11 +16870,11 @@
         <v>OK</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K36" s="46"/>
       <c r="L36" s="22" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -16861,11 +16890,11 @@
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="46" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B37" s="46"/>
       <c r="C37" s="22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -16879,11 +16908,11 @@
         <v>OK</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K37" s="46"/>
       <c r="L37" s="22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -16899,11 +16928,11 @@
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="46" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B38" s="46"/>
       <c r="C38" s="22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -16919,7 +16948,7 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="22" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -16935,11 +16964,11 @@
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="46" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -16955,7 +16984,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="22" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -17143,7 +17172,7 @@
   </sheetPr>
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
@@ -17165,7 +17194,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -17176,7 +17205,7 @@
         <v>OK</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -17189,34 +17218,34 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="70" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="71" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="48"/>
       <c r="H3" s="72" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="I3" s="72"/>
       <c r="J3" s="72"/>
       <c r="K3" s="71" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L3" s="71"/>
       <c r="M3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="73" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="5" t="str">
@@ -17224,12 +17253,12 @@
         <v>OK</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="29" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L4" s="29"/>
       <c r="M4" s="5" t="str">
@@ -17239,7 +17268,7 @@
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -17247,19 +17276,19 @@
         <v>270</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F5" s="5" t="str">
         <f aca="false">IF(ISBLANK(D5), IncompleteText, IF(D5&lt;(MaxTSVoltage*0.5), ErrorText, OKText))</f>
         <v>OK</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="29" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L5" s="29"/>
       <c r="M5" s="5" t="str">
@@ -17269,7 +17298,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="20" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -17286,7 +17315,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="20" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -17303,7 +17332,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="20" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -17320,7 +17349,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -17333,7 +17362,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="M10" s="38" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
@@ -17948,7 +17977,7 @@
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -17964,7 +17993,7 @@
         <v>WARNING</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -18008,11 +18037,11 @@
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="46" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B38" s="46"/>
       <c r="C38" s="22" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -18029,7 +18058,7 @@
         <v>OK</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -18050,11 +18079,11 @@
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="46" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B39" s="46"/>
       <c r="C39" s="22" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -18071,7 +18100,7 @@
         <v>OK</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -18092,11 +18121,11 @@
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="22" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -18113,7 +18142,7 @@
         <v>OK</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -18134,11 +18163,11 @@
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B41" s="46"/>
       <c r="C41" s="22" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -18172,11 +18201,11 @@
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="46" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B42" s="46"/>
       <c r="C42" s="22" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -18202,17 +18231,17 @@
       <c r="T42" s="74"/>
       <c r="U42" s="74"/>
       <c r="V42" s="31" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="W42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="46" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B43" s="46"/>
       <c r="C43" s="22" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -18242,11 +18271,11 @@
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="46" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B44" s="46"/>
       <c r="C44" s="22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -18276,11 +18305,11 @@
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B45" s="46"/>
       <c r="C45" s="22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -18310,11 +18339,11 @@
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="46" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B46" s="46"/>
       <c r="C46" s="22" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -18333,11 +18362,11 @@
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="46" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B47" s="46"/>
       <c r="C47" s="22" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -18354,7 +18383,7 @@
         <v>OK</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="N47" s="38"/>
       <c r="O47" s="38"/>
@@ -18369,11 +18398,11 @@
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="46" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="22" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -18404,11 +18433,11 @@
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="46" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B49" s="46"/>
       <c r="C49" s="22" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -18440,7 +18469,7 @@
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="22" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -18472,7 +18501,7 @@
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="22" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -18504,7 +18533,7 @@
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -18534,11 +18563,11 @@
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="46" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B53" s="46"/>
       <c r="C53" s="22" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -18568,11 +18597,11 @@
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="46" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B54" s="46"/>
       <c r="C54" s="22" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -18602,11 +18631,11 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="46" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B55" s="46"/>
       <c r="C55" s="22" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -18638,7 +18667,7 @@
       <c r="A56" s="46"/>
       <c r="B56" s="46"/>
       <c r="C56" s="22" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -18668,11 +18697,11 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="46" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B57" s="46"/>
       <c r="C57" s="22" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
@@ -18702,11 +18731,11 @@
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="46" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B58" s="46"/>
       <c r="C58" s="22" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
@@ -18738,7 +18767,7 @@
       <c r="A59" s="46"/>
       <c r="B59" s="46"/>
       <c r="C59" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -18770,7 +18799,7 @@
       <c r="A60" s="46"/>
       <c r="B60" s="46"/>
       <c r="C60" s="22" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
@@ -18800,11 +18829,11 @@
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="46" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="22" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
@@ -18862,7 +18891,7 @@
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="77" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B63" s="77"/>
       <c r="C63" s="77"/>
@@ -18873,7 +18902,7 @@
       <c r="H63" s="77"/>
       <c r="I63" s="77"/>
       <c r="J63" s="31" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K63" s="31"/>
       <c r="M63" s="38"/>
@@ -19053,7 +19082,7 @@
     </row>
     <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M74" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -19071,7 +19100,7 @@
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M75" s="22" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
@@ -19092,7 +19121,7 @@
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M76" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
@@ -19113,7 +19142,7 @@
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M77" s="22" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
@@ -19151,7 +19180,7 @@
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="M79" s="77" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="N79" s="77"/>
       <c r="O79" s="77"/>
@@ -19162,7 +19191,7 @@
       <c r="T79" s="77"/>
       <c r="U79" s="77"/>
       <c r="V79" s="31" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="W79" s="31"/>
     </row>
@@ -19354,7 +19383,7 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
@@ -19378,7 +19407,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -19389,7 +19418,7 @@
         <v>OK</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -19408,11 +19437,11 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="71" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -19432,41 +19461,41 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C4" s="47"/>
       <c r="D4" s="47" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E4" s="47"/>
       <c r="H4" s="33" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="25" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="78" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M4" s="78" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>10</v>
@@ -19529,30 +19558,30 @@
         <v>OK</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="29" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="R6" s="34"/>
       <c r="S6" s="5" t="str">
@@ -19582,30 +19611,30 @@
         <v>OK</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="29" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="R7" s="34"/>
       <c r="S7" s="5" t="str">
@@ -19635,30 +19664,30 @@
         <v>OK</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="29" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="O8" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="29" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="5" t="str">
@@ -19768,7 +19797,7 @@
         <v/>
       </c>
       <c r="T11" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -19868,7 +19897,7 @@
   </sheetPr>
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -19888,7 +19917,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -19899,7 +19928,7 @@
         <v>OK</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -19917,7 +19946,7 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="str">
@@ -19930,7 +19959,7 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="5" t="str">
@@ -19945,7 +19974,7 @@
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="5" t="str">
@@ -19958,7 +19987,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="5" t="str">
@@ -19973,7 +20002,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="5" t="str">
@@ -19986,7 +20015,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="5" t="str">
@@ -19996,7 +20025,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
@@ -20021,7 +20050,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="85" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
@@ -20213,7 +20242,7 @@
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -20228,7 +20257,7 @@
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
